--- a/public/files/words.xlsx
+++ b/public/files/words.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3682" uniqueCount="1873">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4162" uniqueCount="2085">
   <si>
     <t>die</t>
   </si>
@@ -4603,9 +4603,6 @@
     <t>Landwirt</t>
   </si>
   <si>
-    <t>Fröster</t>
-  </si>
-  <si>
     <t>Gärtner</t>
   </si>
   <si>
@@ -4657,9 +4654,6 @@
     <t>Feuerwehrmann</t>
   </si>
   <si>
-    <t>Feuerwehrleute</t>
-  </si>
-  <si>
     <t>Zukunft</t>
   </si>
   <si>
@@ -4685,9 +4679,6 @@
   </si>
   <si>
     <t>aranyműves, ötvös</t>
-  </si>
-  <si>
-    <t>Landwirtschaftsberuf</t>
   </si>
   <si>
     <t>mezőgazda</t>
@@ -4808,18 +4799,12 @@
     <t>abschließen</t>
   </si>
   <si>
-    <t>Hochschul</t>
-  </si>
-  <si>
     <t>Universität</t>
   </si>
   <si>
     <t>Medizin</t>
   </si>
   <si>
-    <t>erreichnen</t>
-  </si>
-  <si>
     <t>Weiterbildung</t>
   </si>
   <si>
@@ -4868,9 +4853,6 @@
     <t>beilegen</t>
   </si>
   <si>
-    <t>mellékel</t>
-  </si>
-  <si>
     <t>Beamte</t>
   </si>
   <si>
@@ -4928,9 +4910,6 @@
     <t>familiäres</t>
   </si>
   <si>
-    <t>monotone</t>
-  </si>
-  <si>
     <t>angenehm</t>
   </si>
   <si>
@@ -4961,9 +4940,6 @@
     <t>Teller</t>
   </si>
   <si>
-    <t>Löfel</t>
-  </si>
-  <si>
     <t>Gabel</t>
   </si>
   <si>
@@ -5183,9 +5159,6 @@
     <t>Kirsche</t>
   </si>
   <si>
-    <t>Suerkirsche</t>
-  </si>
-  <si>
     <t>Erdbeere</t>
   </si>
   <si>
@@ -5255,9 +5228,6 @@
     <t>Spinat</t>
   </si>
   <si>
-    <t>Sauerampfel</t>
-  </si>
-  <si>
     <t>sóska</t>
   </si>
   <si>
@@ -5345,9 +5315,6 @@
     <t>Ketchup</t>
   </si>
   <si>
-    <t>Drill</t>
-  </si>
-  <si>
     <t>Kümmel</t>
   </si>
   <si>
@@ -5360,24 +5327,15 @@
     <t>Vanille</t>
   </si>
   <si>
-    <t>Ingweer</t>
-  </si>
-  <si>
     <t>Curry</t>
   </si>
   <si>
     <t>Chili</t>
   </si>
   <si>
-    <t>Schpeisewürze</t>
-  </si>
-  <si>
     <t>Tee</t>
   </si>
   <si>
-    <t>Kaffe</t>
-  </si>
-  <si>
     <t>Kakao</t>
   </si>
   <si>
@@ -5399,9 +5357,6 @@
     <t>kiadós</t>
   </si>
   <si>
-    <t>adjective</t>
-  </si>
-  <si>
     <t>Honig</t>
   </si>
   <si>
@@ -5429,12 +5384,6 @@
     <t>Hauptgericht</t>
   </si>
   <si>
-    <t>Snack</t>
-  </si>
-  <si>
-    <t>Imbiss</t>
-  </si>
-  <si>
     <t>dreigängig</t>
   </si>
   <si>
@@ -5462,9 +5411,6 @@
     <t>Beilage</t>
   </si>
   <si>
-    <t>Röstkartoffel</t>
-  </si>
-  <si>
     <t>Pommes frites</t>
   </si>
   <si>
@@ -5673,6 +5619,696 @@
   </si>
   <si>
     <t>gazda</t>
+  </si>
+  <si>
+    <t>kertérsz</t>
+  </si>
+  <si>
+    <t>Förster</t>
+  </si>
+  <si>
+    <t>erdész</t>
+  </si>
+  <si>
+    <t>fodrász</t>
+  </si>
+  <si>
+    <t>fodrásznő</t>
+  </si>
+  <si>
+    <t>kozmetikus</t>
+  </si>
+  <si>
+    <t>fényképész</t>
+  </si>
+  <si>
+    <t>órás</t>
+  </si>
+  <si>
+    <t>virágárus</t>
+  </si>
+  <si>
+    <t>virágárusnő</t>
+  </si>
+  <si>
+    <t>eladó</t>
+  </si>
+  <si>
+    <t>eladónő</t>
+  </si>
+  <si>
+    <t>pincér</t>
+  </si>
+  <si>
+    <t>pincérnő</t>
+  </si>
+  <si>
+    <t>buszsofőr</t>
+  </si>
+  <si>
+    <t>postatisztviselő</t>
+  </si>
+  <si>
+    <t>postás, levélhordó</t>
+  </si>
+  <si>
+    <t>rendőr</t>
+  </si>
+  <si>
+    <t>Feuerwehrmänner</t>
+  </si>
+  <si>
+    <t>tűzoltó</t>
+  </si>
+  <si>
+    <t>hivatás, szakma</t>
+  </si>
+  <si>
+    <t>jövő</t>
+  </si>
+  <si>
+    <t>megragad, fog</t>
+  </si>
+  <si>
+    <t>dolgozó, hivatását gyakorló</t>
+  </si>
+  <si>
+    <t>üveges</t>
+  </si>
+  <si>
+    <t>optikus</t>
+  </si>
+  <si>
+    <t>pilota</t>
+  </si>
+  <si>
+    <t>légiutaskísérő</t>
+  </si>
+  <si>
+    <t>programozó</t>
+  </si>
+  <si>
+    <t>újságíró</t>
+  </si>
+  <si>
+    <t>újságírónő</t>
+  </si>
+  <si>
+    <t>riporter</t>
+  </si>
+  <si>
+    <t>riporternő</t>
+  </si>
+  <si>
+    <t>színész</t>
+  </si>
+  <si>
+    <t>színésznő</t>
+  </si>
+  <si>
+    <t>balettáncos</t>
+  </si>
+  <si>
+    <t>balettáncosnő</t>
+  </si>
+  <si>
+    <t>grafikus</t>
+  </si>
+  <si>
+    <t>grafikusnő</t>
+  </si>
+  <si>
+    <t>énekes</t>
+  </si>
+  <si>
+    <t>énekesnő</t>
+  </si>
+  <si>
+    <t>orvos</t>
+  </si>
+  <si>
+    <t>orvosnő</t>
+  </si>
+  <si>
+    <t>matematikus</t>
+  </si>
+  <si>
+    <t>vegyész, gyógyszerész</t>
+  </si>
+  <si>
+    <t>fizikus</t>
+  </si>
+  <si>
+    <t>biológus</t>
+  </si>
+  <si>
+    <t>közgazdász</t>
+  </si>
+  <si>
+    <t>elvégez, befejez</t>
+  </si>
+  <si>
+    <t>lezár, befejez</t>
+  </si>
+  <si>
+    <t>Hochschule</t>
+  </si>
+  <si>
+    <t>főiskola</t>
+  </si>
+  <si>
+    <t>egyetem</t>
+  </si>
+  <si>
+    <t>gyógyszer</t>
+  </si>
+  <si>
+    <t>erreichen</t>
+  </si>
+  <si>
+    <t>elér, elnyer</t>
+  </si>
+  <si>
+    <t>továbbképzés</t>
+  </si>
+  <si>
+    <t>átképzés</t>
+  </si>
+  <si>
+    <t>vállalat</t>
+  </si>
+  <si>
+    <t>gyár</t>
+  </si>
+  <si>
+    <t>cég, vállalat</t>
+  </si>
+  <si>
+    <t>cserél, változtat, változik</t>
+  </si>
+  <si>
+    <t>elveszt, elhagy</t>
+  </si>
+  <si>
+    <t>tájékoztat, értesít</t>
+  </si>
+  <si>
+    <t>pályázik, jelentkezik</t>
+  </si>
+  <si>
+    <t>pályázó, jelentkező (nő)</t>
+  </si>
+  <si>
+    <t>pályázó, jelentkező (férfi)</t>
+  </si>
+  <si>
+    <t>pályázat, kérelem</t>
+  </si>
+  <si>
+    <t>önéletrajz</t>
+  </si>
+  <si>
+    <t>mellékel, csatol</t>
+  </si>
+  <si>
+    <t>hivatalnok (nő)</t>
+  </si>
+  <si>
+    <t>hivatalnok (férfi)</t>
+  </si>
+  <si>
+    <t>családias, családi</t>
+  </si>
+  <si>
+    <t>monoton</t>
+  </si>
+  <si>
+    <t>egyhangú</t>
+  </si>
+  <si>
+    <t>kellemes</t>
+  </si>
+  <si>
+    <t>fogadás</t>
+  </si>
+  <si>
+    <t>étkezőasztal</t>
+  </si>
+  <si>
+    <t>asztalterítő</t>
+  </si>
+  <si>
+    <t>papír zsebkendő</t>
+  </si>
+  <si>
+    <t>tányér</t>
+  </si>
+  <si>
+    <t>kanál</t>
+  </si>
+  <si>
+    <t>villa</t>
+  </si>
+  <si>
+    <t>dessert villa</t>
+  </si>
+  <si>
+    <t>kés</t>
+  </si>
+  <si>
+    <t>üveg, pohár</t>
+  </si>
+  <si>
+    <t>tálka</t>
+  </si>
+  <si>
+    <t>szalvéta</t>
+  </si>
+  <si>
+    <t>étel</t>
+  </si>
+  <si>
+    <t>ital</t>
+  </si>
+  <si>
+    <t>étel, élelem</t>
+  </si>
+  <si>
+    <t>gyümölcstál</t>
+  </si>
+  <si>
+    <t>alma</t>
+  </si>
+  <si>
+    <t>körte</t>
+  </si>
+  <si>
+    <t>szőlő</t>
+  </si>
+  <si>
+    <t>dinnye</t>
+  </si>
+  <si>
+    <t>narancs</t>
+  </si>
+  <si>
+    <t>banán</t>
+  </si>
+  <si>
+    <t>szilva</t>
+  </si>
+  <si>
+    <t>zöldségtál</t>
+  </si>
+  <si>
+    <t>paradicsom</t>
+  </si>
+  <si>
+    <t>hagyma</t>
+  </si>
+  <si>
+    <t>uborka</t>
+  </si>
+  <si>
+    <t>paprika</t>
+  </si>
+  <si>
+    <t>hal</t>
+  </si>
+  <si>
+    <t>tojás</t>
+  </si>
+  <si>
+    <t>sült kolbász</t>
+  </si>
+  <si>
+    <t>fejes saláta</t>
+  </si>
+  <si>
+    <t>sült csirke</t>
+  </si>
+  <si>
+    <t>sertéssült</t>
+  </si>
+  <si>
+    <t>édesség</t>
+  </si>
+  <si>
+    <t>gyümölcstorta</t>
+  </si>
+  <si>
+    <t>sütemény, kalács</t>
+  </si>
+  <si>
+    <t>ásványvíz</t>
+  </si>
+  <si>
+    <t>gyümölcslé</t>
+  </si>
+  <si>
+    <t>bor</t>
+  </si>
+  <si>
+    <t>pálinka</t>
+  </si>
+  <si>
+    <t>sör</t>
+  </si>
+  <si>
+    <t>élelmiszer</t>
+  </si>
+  <si>
+    <t>kóstol</t>
+  </si>
+  <si>
+    <t>pompás</t>
+  </si>
+  <si>
+    <t>finnyás, ízletes</t>
+  </si>
+  <si>
+    <t>finom, kiváló</t>
+  </si>
+  <si>
+    <t>ízletes</t>
+  </si>
+  <si>
+    <t>étvágygerjesztő</t>
+  </si>
+  <si>
+    <t>savanyú</t>
+  </si>
+  <si>
+    <t>édes</t>
+  </si>
+  <si>
+    <t>keserű</t>
+  </si>
+  <si>
+    <t>fűszeres</t>
+  </si>
+  <si>
+    <t>sós</t>
+  </si>
+  <si>
+    <t>puha, lágy</t>
+  </si>
+  <si>
+    <t>friss</t>
+  </si>
+  <si>
+    <t>enyhe, finom</t>
+  </si>
+  <si>
+    <t>ropogós</t>
+  </si>
+  <si>
+    <t>rágós</t>
+  </si>
+  <si>
+    <t>zsíros, kövér</t>
+  </si>
+  <si>
+    <t>égett</t>
+  </si>
+  <si>
+    <t>kalóriaszegény</t>
+  </si>
+  <si>
+    <t>kalóriadús</t>
+  </si>
+  <si>
+    <t>éhség</t>
+  </si>
+  <si>
+    <t>erős, csípős</t>
+  </si>
+  <si>
+    <t>szomjas</t>
+  </si>
+  <si>
+    <t>étvágy</t>
+  </si>
+  <si>
+    <t>kenyér</t>
+  </si>
+  <si>
+    <t>zsemle</t>
+  </si>
+  <si>
+    <t>kifli</t>
+  </si>
+  <si>
+    <t>gyümölcs</t>
+  </si>
+  <si>
+    <t>Obstarten</t>
+  </si>
+  <si>
+    <t>sárgabarack, kajszibarack</t>
+  </si>
+  <si>
+    <t>cseresznye</t>
+  </si>
+  <si>
+    <t>meggy</t>
+  </si>
+  <si>
+    <t>Sauerkirsche</t>
+  </si>
+  <si>
+    <t>eper</t>
+  </si>
+  <si>
+    <t>málna</t>
+  </si>
+  <si>
+    <t>egres</t>
+  </si>
+  <si>
+    <t>áfonya</t>
+  </si>
+  <si>
+    <t>ribizli</t>
+  </si>
+  <si>
+    <t>dió</t>
+  </si>
+  <si>
+    <t>citrom</t>
+  </si>
+  <si>
+    <t>grépfruit</t>
+  </si>
+  <si>
+    <t>mandarin</t>
+  </si>
+  <si>
+    <t>füge</t>
+  </si>
+  <si>
+    <t>datolya</t>
+  </si>
+  <si>
+    <t>zöldség, főzelék</t>
+  </si>
+  <si>
+    <t>póréhagyma</t>
+  </si>
+  <si>
+    <t>sárgarépa, répa</t>
+  </si>
+  <si>
+    <t>Steckrübe</t>
+  </si>
+  <si>
+    <t>fehérrépa</t>
+  </si>
+  <si>
+    <t>zeller</t>
+  </si>
+  <si>
+    <t>retek</t>
+  </si>
+  <si>
+    <t>burgonya, krumpli</t>
+  </si>
+  <si>
+    <t>Sauerampfer</t>
+  </si>
+  <si>
+    <t>káposzta, kelkáposzta</t>
+  </si>
+  <si>
+    <t>spárga</t>
+  </si>
+  <si>
+    <t>brokkoli</t>
+  </si>
+  <si>
+    <t>bab</t>
+  </si>
+  <si>
+    <t>tej</t>
+  </si>
+  <si>
+    <t>vaj</t>
+  </si>
+  <si>
+    <t>margarin</t>
+  </si>
+  <si>
+    <t>sajt</t>
+  </si>
+  <si>
+    <t>hús</t>
+  </si>
+  <si>
+    <t>hurka, kolbász</t>
+  </si>
+  <si>
+    <t>felvágott</t>
+  </si>
+  <si>
+    <t>bazsalikom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">koriandermag  </t>
+  </si>
+  <si>
+    <t>oregánó</t>
+  </si>
+  <si>
+    <t>mustár</t>
+  </si>
+  <si>
+    <t>ecet</t>
+  </si>
+  <si>
+    <t>ketchup</t>
+  </si>
+  <si>
+    <t>kömény</t>
+  </si>
+  <si>
+    <t>fahéj</t>
+  </si>
+  <si>
+    <t>cukor</t>
+  </si>
+  <si>
+    <t>vanília</t>
+  </si>
+  <si>
+    <t>Ingwer</t>
+  </si>
+  <si>
+    <t>gyömbér</t>
+  </si>
+  <si>
+    <t>curry</t>
+  </si>
+  <si>
+    <t>erős paprika</t>
+  </si>
+  <si>
+    <t>Speisewürze</t>
+  </si>
+  <si>
+    <t>ételízesítő</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>kávé</t>
+  </si>
+  <si>
+    <t>kakaó</t>
+  </si>
+  <si>
+    <t>Kaffee</t>
+  </si>
+  <si>
+    <t>limonádé</t>
+  </si>
+  <si>
+    <t>kóla</t>
+  </si>
+  <si>
+    <t>likőr</t>
+  </si>
+  <si>
+    <t>pezsgő</t>
+  </si>
+  <si>
+    <t>méz</t>
+  </si>
+  <si>
+    <t>folyósó</t>
+  </si>
+  <si>
+    <t>bíróság, étel</t>
+  </si>
+  <si>
+    <t>leves</t>
+  </si>
+  <si>
+    <t>előétel</t>
+  </si>
+  <si>
+    <t>utóétel, desszert</t>
+  </si>
+  <si>
+    <t>desszert</t>
+  </si>
+  <si>
+    <t>főétel, főfogás</t>
+  </si>
+  <si>
+    <t>háromfogásos</t>
+  </si>
+  <si>
+    <t>vacsora</t>
+  </si>
+  <si>
+    <t>tízórai</t>
+  </si>
+  <si>
+    <t>uzsonna</t>
+  </si>
+  <si>
+    <t>nassolni</t>
+  </si>
+  <si>
+    <t>rág, rágcsál</t>
+  </si>
+  <si>
+    <t>húsleves</t>
+  </si>
+  <si>
+    <t>grízgaluska leves</t>
+  </si>
+  <si>
+    <t>köret, melléklet</t>
+  </si>
+  <si>
+    <t>Röstkartoffeln</t>
+  </si>
+  <si>
+    <t>sültkrumpli</t>
+  </si>
+  <si>
+    <t>hasábburgonya, sütkrumpli</t>
+  </si>
+  <si>
+    <t>krumplipüré</t>
+  </si>
+  <si>
+    <t>krumpli krokett</t>
+  </si>
+  <si>
+    <t>rizs</t>
   </si>
 </sst>
 </file>
@@ -6237,70 +6873,7 @@
     <cellStyle name="Semleges" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Számítás" xfId="11" builtinId="22" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="52">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="40">
     <dxf>
       <fill>
         <patternFill>
@@ -6368,27 +6941,6 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6899,10 +7451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1040"/>
+  <dimension ref="A1:N1037"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A976" workbookViewId="0">
+      <selection activeCell="G998" sqref="G998"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17260,7 +17812,7 @@
         <v>696</v>
       </c>
       <c r="H733" t="s">
-        <v>1846</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="734" spans="1:8" x14ac:dyDescent="0.25">
@@ -17277,7 +17829,7 @@
         <v>696</v>
       </c>
       <c r="H734" t="s">
-        <v>1847</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="735" spans="1:8" x14ac:dyDescent="0.25">
@@ -17288,13 +17840,13 @@
         <v>1506</v>
       </c>
       <c r="C735" t="s">
-        <v>1848</v>
+        <v>1830</v>
       </c>
       <c r="F735" t="s">
         <v>696</v>
       </c>
       <c r="H735" t="s">
-        <v>1849</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="736" spans="1:8" x14ac:dyDescent="0.25">
@@ -17311,7 +17863,7 @@
         <v>696</v>
       </c>
       <c r="H736" t="s">
-        <v>1850</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="737" spans="1:8" x14ac:dyDescent="0.25">
@@ -17322,7 +17874,7 @@
         <v>695</v>
       </c>
       <c r="H737" t="s">
-        <v>1851</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="738" spans="1:8" x14ac:dyDescent="0.25">
@@ -17333,7 +17885,7 @@
         <v>695</v>
       </c>
       <c r="H738" t="s">
-        <v>1852</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="739" spans="1:8" x14ac:dyDescent="0.25">
@@ -17344,7 +17896,7 @@
         <v>692</v>
       </c>
       <c r="H739" t="s">
-        <v>1853</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="740" spans="1:8" x14ac:dyDescent="0.25">
@@ -17355,7 +17907,7 @@
         <v>695</v>
       </c>
       <c r="H740" t="s">
-        <v>1854</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="741" spans="1:8" x14ac:dyDescent="0.25">
@@ -17369,7 +17921,7 @@
         <v>696</v>
       </c>
       <c r="H741" t="s">
-        <v>1855</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="742" spans="1:8" x14ac:dyDescent="0.25">
@@ -17386,7 +17938,7 @@
         <v>696</v>
       </c>
       <c r="H742" t="s">
-        <v>1856</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="743" spans="1:8" x14ac:dyDescent="0.25">
@@ -17397,7 +17949,7 @@
         <v>692</v>
       </c>
       <c r="H743" t="s">
-        <v>1857</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="744" spans="1:8" x14ac:dyDescent="0.25">
@@ -17408,13 +17960,13 @@
         <v>1515</v>
       </c>
       <c r="C744" t="s">
-        <v>1858</v>
+        <v>1840</v>
       </c>
       <c r="F744" t="s">
         <v>696</v>
       </c>
       <c r="H744" t="s">
-        <v>1859</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="745" spans="1:8" x14ac:dyDescent="0.25">
@@ -17431,7 +17983,7 @@
         <v>696</v>
       </c>
       <c r="H745" t="s">
-        <v>1860</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="746" spans="1:8" x14ac:dyDescent="0.25">
@@ -17448,7 +18000,7 @@
         <v>696</v>
       </c>
       <c r="H746" t="s">
-        <v>1861</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="747" spans="1:8" x14ac:dyDescent="0.25">
@@ -17465,7 +18017,7 @@
         <v>696</v>
       </c>
       <c r="H747" t="s">
-        <v>1862</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="748" spans="1:8" x14ac:dyDescent="0.25">
@@ -17482,7 +18034,7 @@
         <v>696</v>
       </c>
       <c r="H748" t="s">
-        <v>1863</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="749" spans="1:8" x14ac:dyDescent="0.25">
@@ -17499,7 +18051,7 @@
         <v>696</v>
       </c>
       <c r="H749" t="s">
-        <v>1864</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="750" spans="1:8" x14ac:dyDescent="0.25">
@@ -17516,7 +18068,7 @@
         <v>696</v>
       </c>
       <c r="H750" t="s">
-        <v>1865</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="751" spans="1:8" x14ac:dyDescent="0.25">
@@ -17533,7 +18085,7 @@
         <v>696</v>
       </c>
       <c r="H751" t="s">
-        <v>1866</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="752" spans="1:8" x14ac:dyDescent="0.25">
@@ -17550,7 +18102,7 @@
         <v>696</v>
       </c>
       <c r="H752" t="s">
-        <v>1867</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="753" spans="1:8" x14ac:dyDescent="0.25">
@@ -17567,7 +18119,7 @@
         <v>696</v>
       </c>
       <c r="H753" t="s">
-        <v>1868</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="754" spans="1:8" x14ac:dyDescent="0.25">
@@ -17578,13 +18130,13 @@
         <v>1526</v>
       </c>
       <c r="C754" t="s">
-        <v>1869</v>
+        <v>1851</v>
       </c>
       <c r="F754" t="s">
         <v>696</v>
       </c>
       <c r="H754" t="s">
-        <v>1870</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="755" spans="1:8" x14ac:dyDescent="0.25">
@@ -17597,8 +18149,11 @@
       <c r="C755" t="s">
         <v>31</v>
       </c>
+      <c r="F755" t="s">
+        <v>696</v>
+      </c>
       <c r="H755" t="s">
-        <v>1871</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="756" spans="1:8" x14ac:dyDescent="0.25">
@@ -17611,8 +18166,11 @@
       <c r="C756" t="s">
         <v>19</v>
       </c>
+      <c r="F756" t="s">
+        <v>696</v>
+      </c>
       <c r="H756" t="s">
-        <v>1872</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="757" spans="1:8" x14ac:dyDescent="0.25">
@@ -17620,200 +18178,308 @@
         <v>17</v>
       </c>
       <c r="B757" t="s">
-        <v>1529</v>
+        <v>1856</v>
       </c>
       <c r="C757" t="s">
         <v>31</v>
       </c>
+      <c r="F757" t="s">
+        <v>696</v>
+      </c>
+      <c r="H757" t="s">
+        <v>1857</v>
+      </c>
     </row>
     <row r="758" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
         <v>17</v>
       </c>
       <c r="B758" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="C758" t="s">
         <v>31</v>
       </c>
+      <c r="F758" t="s">
+        <v>696</v>
+      </c>
+      <c r="H758" t="s">
+        <v>1855</v>
+      </c>
     </row>
     <row r="759" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
         <v>17</v>
       </c>
       <c r="B759" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="C759" t="s">
         <v>19</v>
       </c>
+      <c r="F759" t="s">
+        <v>696</v>
+      </c>
+      <c r="H759" t="s">
+        <v>1858</v>
+      </c>
     </row>
     <row r="760" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
         <v>0</v>
       </c>
       <c r="B760" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="C760" t="s">
         <v>25</v>
       </c>
+      <c r="F760" t="s">
+        <v>696</v>
+      </c>
+      <c r="H760" t="s">
+        <v>1859</v>
+      </c>
     </row>
     <row r="761" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
         <v>0</v>
       </c>
       <c r="B761" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="C761" t="s">
         <v>28</v>
       </c>
+      <c r="F761" t="s">
+        <v>696</v>
+      </c>
+      <c r="H761" t="s">
+        <v>1860</v>
+      </c>
     </row>
     <row r="762" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
         <v>17</v>
       </c>
       <c r="B762" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="C762" t="s">
         <v>2</v>
       </c>
+      <c r="F762" t="s">
+        <v>696</v>
+      </c>
+      <c r="H762" t="s">
+        <v>1861</v>
+      </c>
     </row>
     <row r="763" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
         <v>17</v>
       </c>
       <c r="B763" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="C763" t="s">
         <v>31</v>
       </c>
+      <c r="F763" t="s">
+        <v>696</v>
+      </c>
+      <c r="H763" t="s">
+        <v>1862</v>
+      </c>
     </row>
     <row r="764" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
         <v>17</v>
       </c>
       <c r="B764" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="C764" t="s">
         <v>2</v>
       </c>
+      <c r="F764" t="s">
+        <v>696</v>
+      </c>
+      <c r="H764" t="s">
+        <v>1863</v>
+      </c>
     </row>
     <row r="765" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
         <v>0</v>
       </c>
       <c r="B765" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="C765" t="s">
         <v>28</v>
       </c>
+      <c r="F765" t="s">
+        <v>696</v>
+      </c>
+      <c r="H765" t="s">
+        <v>1864</v>
+      </c>
     </row>
     <row r="766" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
         <v>17</v>
       </c>
       <c r="B766" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="C766" t="s">
         <v>31</v>
       </c>
+      <c r="F766" t="s">
+        <v>696</v>
+      </c>
+      <c r="H766" t="s">
+        <v>1865</v>
+      </c>
     </row>
     <row r="767" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
         <v>0</v>
       </c>
       <c r="B767" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="C767" t="s">
         <v>28</v>
       </c>
+      <c r="F767" t="s">
+        <v>696</v>
+      </c>
+      <c r="H767" t="s">
+        <v>1866</v>
+      </c>
     </row>
     <row r="768" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
         <v>17</v>
       </c>
       <c r="B768" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="C768" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="769" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F768" t="s">
+        <v>696</v>
+      </c>
+      <c r="H768" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="769" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
         <v>0</v>
       </c>
       <c r="B769" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="C769" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="770" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F769" t="s">
+        <v>696</v>
+      </c>
+      <c r="H769" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="770" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
         <v>17</v>
       </c>
       <c r="B770" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="C770" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="771" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F770" t="s">
+        <v>696</v>
+      </c>
+      <c r="H770" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="771" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
         <v>17</v>
       </c>
       <c r="B771" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="C771" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="772" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F771" t="s">
+        <v>696</v>
+      </c>
+      <c r="H771" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="772" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
         <v>17</v>
       </c>
       <c r="B772" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="C772" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="773" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F772" t="s">
+        <v>696</v>
+      </c>
+      <c r="H772" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="773" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
         <v>17</v>
       </c>
       <c r="B773" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="C773" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="774" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F773" t="s">
+        <v>696</v>
+      </c>
+      <c r="H773" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="774" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
         <v>17</v>
       </c>
       <c r="B774" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="C774" t="s">
-        <v>1547</v>
-      </c>
-    </row>
-    <row r="775" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1873</v>
+      </c>
+      <c r="F774" t="s">
+        <v>696</v>
+      </c>
+      <c r="H774" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="775" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
         <v>17</v>
       </c>
@@ -17823,2477 +18489,3797 @@
       <c r="C775" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="776" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F775" t="s">
+        <v>696</v>
+      </c>
+      <c r="H775" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="776" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
         <v>0</v>
       </c>
       <c r="B776" t="s">
+        <v>1546</v>
+      </c>
+      <c r="F776" t="s">
+        <v>696</v>
+      </c>
+      <c r="H776" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="777" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B777" t="s">
+        <v>1547</v>
+      </c>
+      <c r="F777" t="s">
+        <v>692</v>
+      </c>
+      <c r="H777" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="778" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A778" t="s">
+        <v>17</v>
+      </c>
+      <c r="B778" t="s">
         <v>1548</v>
       </c>
-    </row>
-    <row r="777" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B777" t="s">
+      <c r="C778" t="s">
+        <v>19</v>
+      </c>
+      <c r="F778" t="s">
+        <v>696</v>
+      </c>
+      <c r="H778" t="s">
         <v>1549</v>
       </c>
     </row>
-    <row r="778" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B778" t="s">
+    <row r="779" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B779" t="s">
         <v>1550</v>
       </c>
-      <c r="G778" t="s">
+      <c r="F779" t="s">
+        <v>695</v>
+      </c>
+      <c r="H779" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="780" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A780" t="s">
+        <v>17</v>
+      </c>
+      <c r="B780" t="s">
         <v>1551</v>
-      </c>
-    </row>
-    <row r="779" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B779" t="s">
-        <v>1552</v>
-      </c>
-    </row>
-    <row r="780" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A780" t="s">
-        <v>17</v>
-      </c>
-      <c r="B780" t="s">
-        <v>1553</v>
       </c>
       <c r="C780" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="781" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F780" t="s">
+        <v>696</v>
+      </c>
+      <c r="H780" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="781" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
         <v>17</v>
       </c>
       <c r="B781" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="C781" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="782" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F781" t="s">
+        <v>696</v>
+      </c>
+      <c r="H781" t="s">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="782" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
         <v>17</v>
       </c>
       <c r="B782" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="C782" t="s">
         <v>19</v>
       </c>
-      <c r="G782" t="s">
+      <c r="F782" t="s">
+        <v>696</v>
+      </c>
+      <c r="H782" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="783" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A783" t="s">
+        <v>17</v>
+      </c>
+      <c r="B783" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C783" t="s">
+        <v>19</v>
+      </c>
+      <c r="F783" t="s">
+        <v>696</v>
+      </c>
+      <c r="H783" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="784" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A784" t="s">
+        <v>17</v>
+      </c>
+      <c r="B784" t="s">
         <v>1556</v>
       </c>
-    </row>
-    <row r="783" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B783" t="s">
+      <c r="C784" t="s">
+        <v>2</v>
+      </c>
+      <c r="F784" t="s">
+        <v>696</v>
+      </c>
+      <c r="H784" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="785" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A785" t="s">
+        <v>0</v>
+      </c>
+      <c r="B785" t="s">
         <v>1557</v>
-      </c>
-    </row>
-    <row r="784" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A784" t="s">
-        <v>17</v>
-      </c>
-      <c r="B784" t="s">
-        <v>1528</v>
-      </c>
-      <c r="C784" t="s">
-        <v>19</v>
-      </c>
-      <c r="G784" t="s">
-        <v>1558</v>
-      </c>
-    </row>
-    <row r="785" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A785" t="s">
-        <v>17</v>
-      </c>
-      <c r="B785" t="s">
-        <v>1559</v>
       </c>
       <c r="C785" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="786" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F785" t="s">
+        <v>696</v>
+      </c>
+      <c r="H785" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="786" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B786" t="s">
+        <v>1558</v>
+      </c>
+      <c r="C786" t="s">
+        <v>31</v>
+      </c>
+      <c r="F786" t="s">
+        <v>696</v>
+      </c>
+      <c r="H786" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="787" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A787" t="s">
+        <v>17</v>
+      </c>
+      <c r="B787" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C787" t="s">
+        <v>2</v>
+      </c>
+      <c r="F787" t="s">
+        <v>696</v>
+      </c>
+      <c r="H787" t="s">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="788" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A788" t="s">
+        <v>0</v>
+      </c>
+      <c r="B788" t="s">
         <v>1560</v>
       </c>
-      <c r="C786" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="787" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A787" t="s">
-        <v>17</v>
-      </c>
-      <c r="B787" t="s">
+      <c r="C788" t="s">
+        <v>28</v>
+      </c>
+      <c r="F788" t="s">
+        <v>696</v>
+      </c>
+      <c r="H788" t="s">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="789" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A789" t="s">
+        <v>17</v>
+      </c>
+      <c r="B789" t="s">
         <v>1561</v>
       </c>
-      <c r="C787" t="s">
+      <c r="C789" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="788" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A788" t="s">
-        <v>17</v>
-      </c>
-      <c r="B788" t="s">
+      <c r="F789" t="s">
+        <v>696</v>
+      </c>
+      <c r="H789" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="790" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A790" t="s">
+        <v>0</v>
+      </c>
+      <c r="B790" t="s">
         <v>1562</v>
       </c>
-      <c r="C788" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="789" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A789" t="s">
-        <v>0</v>
-      </c>
-      <c r="B789" t="s">
+      <c r="C790" t="s">
+        <v>28</v>
+      </c>
+      <c r="F790" t="s">
+        <v>696</v>
+      </c>
+      <c r="H790" t="s">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="791" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A791" t="s">
+        <v>17</v>
+      </c>
+      <c r="B791" t="s">
         <v>1563</v>
       </c>
-      <c r="C789" t="s">
+      <c r="C791" t="s">
+        <v>31</v>
+      </c>
+      <c r="F791" t="s">
+        <v>696</v>
+      </c>
+      <c r="H791" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="792" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A792" t="s">
+        <v>0</v>
+      </c>
+      <c r="B792" t="s">
+        <v>1564</v>
+      </c>
+      <c r="C792" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="790" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A790" t="s">
-        <v>17</v>
-      </c>
-      <c r="B790" t="s">
-        <v>1564</v>
-      </c>
-      <c r="C790" t="s">
+      <c r="F792" t="s">
+        <v>696</v>
+      </c>
+      <c r="H792" t="s">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="793" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A793" t="s">
+        <v>17</v>
+      </c>
+      <c r="B793" t="s">
+        <v>1565</v>
+      </c>
+      <c r="C793" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="791" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A791" t="s">
-        <v>0</v>
-      </c>
-      <c r="B791" t="s">
-        <v>1565</v>
-      </c>
-      <c r="C791" t="s">
+      <c r="F793" t="s">
+        <v>696</v>
+      </c>
+      <c r="H793" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="794" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A794" t="s">
+        <v>0</v>
+      </c>
+      <c r="B794" t="s">
+        <v>1566</v>
+      </c>
+      <c r="C794" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="792" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A792" t="s">
-        <v>17</v>
-      </c>
-      <c r="B792" t="s">
-        <v>1566</v>
-      </c>
-      <c r="C792" t="s">
+      <c r="F794" t="s">
+        <v>696</v>
+      </c>
+      <c r="H794" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="795" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A795" t="s">
+        <v>17</v>
+      </c>
+      <c r="B795" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C795" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="793" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A793" t="s">
-        <v>0</v>
-      </c>
-      <c r="B793" t="s">
-        <v>1567</v>
-      </c>
-      <c r="C793" t="s">
+      <c r="F795" t="s">
+        <v>696</v>
+      </c>
+      <c r="H795" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="796" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A796" t="s">
+        <v>0</v>
+      </c>
+      <c r="B796" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C796" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="794" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A794" t="s">
-        <v>17</v>
-      </c>
-      <c r="B794" t="s">
-        <v>1568</v>
-      </c>
-      <c r="C794" t="s">
+      <c r="F796" t="s">
+        <v>696</v>
+      </c>
+      <c r="H796" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="797" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A797" t="s">
+        <v>17</v>
+      </c>
+      <c r="B797" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C797" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="795" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A795" t="s">
-        <v>0</v>
-      </c>
-      <c r="B795" t="s">
-        <v>1569</v>
-      </c>
-      <c r="C795" t="s">
+      <c r="F797" t="s">
+        <v>696</v>
+      </c>
+      <c r="H797" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="798" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A798" t="s">
+        <v>0</v>
+      </c>
+      <c r="B798" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C798" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="796" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A796" t="s">
-        <v>17</v>
-      </c>
-      <c r="B796" t="s">
-        <v>1570</v>
-      </c>
-      <c r="C796" t="s">
+      <c r="F798" t="s">
+        <v>696</v>
+      </c>
+      <c r="H798" t="s">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="799" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A799" t="s">
+        <v>17</v>
+      </c>
+      <c r="B799" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C799" t="s">
+        <v>1572</v>
+      </c>
+      <c r="F799" t="s">
+        <v>696</v>
+      </c>
+      <c r="H799" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="800" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A800" t="s">
+        <v>0</v>
+      </c>
+      <c r="B800" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C800" t="s">
+        <v>28</v>
+      </c>
+      <c r="F800" t="s">
+        <v>696</v>
+      </c>
+      <c r="H800" t="s">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="801" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A801" t="s">
+        <v>17</v>
+      </c>
+      <c r="B801" t="s">
+        <v>1574</v>
+      </c>
+      <c r="C801" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="797" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A797" t="s">
-        <v>0</v>
-      </c>
-      <c r="B797" t="s">
-        <v>1571</v>
-      </c>
-      <c r="C797" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="798" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A798" t="s">
-        <v>17</v>
-      </c>
-      <c r="B798" t="s">
-        <v>1572</v>
-      </c>
-      <c r="C798" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="799" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A799" t="s">
-        <v>0</v>
-      </c>
-      <c r="B799" t="s">
-        <v>1573</v>
-      </c>
-      <c r="C799" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="800" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A800" t="s">
-        <v>17</v>
-      </c>
-      <c r="B800" t="s">
-        <v>1574</v>
-      </c>
-      <c r="C800" t="s">
+      <c r="F801" t="s">
+        <v>696</v>
+      </c>
+      <c r="H801" t="s">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="802" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A802" t="s">
+        <v>17</v>
+      </c>
+      <c r="B802" t="s">
         <v>1575</v>
-      </c>
-    </row>
-    <row r="801" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A801" t="s">
-        <v>0</v>
-      </c>
-      <c r="B801" t="s">
-        <v>1576</v>
-      </c>
-      <c r="C801" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="802" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A802" t="s">
-        <v>17</v>
-      </c>
-      <c r="B802" t="s">
-        <v>1577</v>
       </c>
       <c r="C802" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="803" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F802" t="s">
+        <v>696</v>
+      </c>
+      <c r="H802" t="s">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="803" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A803" t="s">
         <v>17</v>
       </c>
       <c r="B803" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="C803" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="804" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F803" t="s">
+        <v>696</v>
+      </c>
+      <c r="H803" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="804" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A804" t="s">
         <v>17</v>
       </c>
       <c r="B804" t="s">
+        <v>1577</v>
+      </c>
+      <c r="C804" t="s">
+        <v>25</v>
+      </c>
+      <c r="F804" t="s">
+        <v>696</v>
+      </c>
+      <c r="H804" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="805" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A805" t="s">
+        <v>17</v>
+      </c>
+      <c r="B805" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C805" t="s">
+        <v>2</v>
+      </c>
+      <c r="F805" t="s">
+        <v>696</v>
+      </c>
+      <c r="H805" t="s">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="806" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B806" t="s">
         <v>1579</v>
       </c>
-      <c r="C804" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="805" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A805" t="s">
-        <v>17</v>
-      </c>
-      <c r="B805" t="s">
+      <c r="F806" t="s">
+        <v>692</v>
+      </c>
+      <c r="H806" t="s">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="807" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B807" t="s">
         <v>1580</v>
       </c>
-      <c r="C805" t="s">
+      <c r="F807" t="s">
+        <v>692</v>
+      </c>
+      <c r="H807" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="808" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A808" t="s">
+        <v>0</v>
+      </c>
+      <c r="B808" t="s">
+        <v>1905</v>
+      </c>
+      <c r="C808" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="806" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A806" t="s">
-        <v>17</v>
-      </c>
-      <c r="B806" t="s">
+      <c r="F808" t="s">
+        <v>696</v>
+      </c>
+      <c r="H808" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="809" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A809" t="s">
+        <v>0</v>
+      </c>
+      <c r="B809" t="s">
         <v>1581</v>
       </c>
-      <c r="C806" t="s">
+      <c r="C809" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="807" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B807" t="s">
+      <c r="F809" t="s">
+        <v>696</v>
+      </c>
+      <c r="H809" t="s">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="810" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A810" t="s">
+        <v>0</v>
+      </c>
+      <c r="B810" t="s">
         <v>1582</v>
       </c>
-    </row>
-    <row r="808" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B808" t="s">
+      <c r="C810" t="s">
+        <v>2</v>
+      </c>
+      <c r="F810" t="s">
+        <v>696</v>
+      </c>
+      <c r="H810" t="s">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="811" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B811" t="s">
+        <v>1909</v>
+      </c>
+      <c r="F811" t="s">
+        <v>692</v>
+      </c>
+      <c r="H811" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="812" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A812" t="s">
+        <v>0</v>
+      </c>
+      <c r="B812" t="s">
         <v>1583</v>
       </c>
-    </row>
-    <row r="809" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A809" t="s">
-        <v>17</v>
-      </c>
-      <c r="B809" t="s">
+      <c r="C812" t="s">
+        <v>2</v>
+      </c>
+      <c r="F812" t="s">
+        <v>696</v>
+      </c>
+      <c r="H812" t="s">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="813" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A813" t="s">
+        <v>0</v>
+      </c>
+      <c r="B813" t="s">
         <v>1584</v>
-      </c>
-    </row>
-    <row r="810" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B810" t="s">
-        <v>1585</v>
-      </c>
-    </row>
-    <row r="811" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B811" t="s">
-        <v>1586</v>
-      </c>
-    </row>
-    <row r="812" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B812" t="s">
-        <v>1587</v>
-      </c>
-    </row>
-    <row r="813" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A813" t="s">
-        <v>0</v>
-      </c>
-      <c r="B813" t="s">
-        <v>1588</v>
       </c>
       <c r="C813" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="814" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F813" t="s">
+        <v>696</v>
+      </c>
+      <c r="H813" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="814" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A814" t="s">
         <v>0</v>
       </c>
       <c r="B814" t="s">
+        <v>757</v>
+      </c>
+      <c r="C814" t="s">
+        <v>25</v>
+      </c>
+      <c r="F814" t="s">
+        <v>696</v>
+      </c>
+      <c r="H814" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="815" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A815" t="s">
+        <v>17</v>
+      </c>
+      <c r="B815" t="s">
+        <v>1585</v>
+      </c>
+      <c r="C815" t="s">
+        <v>19</v>
+      </c>
+      <c r="F815" t="s">
+        <v>696</v>
+      </c>
+      <c r="H815" t="s">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="816" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A816" t="s">
+        <v>0</v>
+      </c>
+      <c r="B816" t="s">
+        <v>1586</v>
+      </c>
+      <c r="C816" t="s">
+        <v>2</v>
+      </c>
+      <c r="F816" t="s">
+        <v>696</v>
+      </c>
+      <c r="H816" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="817" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A817" t="s">
+        <v>0</v>
+      </c>
+      <c r="B817" t="s">
+        <v>1587</v>
+      </c>
+      <c r="C817" t="s">
+        <v>1588</v>
+      </c>
+      <c r="F817" t="s">
+        <v>696</v>
+      </c>
+      <c r="H817" t="s">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="818" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B818" t="s">
         <v>1589</v>
       </c>
-      <c r="C814" t="s">
+      <c r="F818" t="s">
+        <v>692</v>
+      </c>
+      <c r="H818" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="819" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B819" t="s">
+        <v>1590</v>
+      </c>
+      <c r="F819" t="s">
+        <v>692</v>
+      </c>
+      <c r="H819" t="s">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="820" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B820" t="s">
+        <v>1591</v>
+      </c>
+      <c r="F820" t="s">
+        <v>692</v>
+      </c>
+      <c r="H820" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="821" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B821" t="s">
+        <v>1592</v>
+      </c>
+      <c r="F821" t="s">
+        <v>692</v>
+      </c>
+      <c r="H821" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="822" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A822" t="s">
+        <v>17</v>
+      </c>
+      <c r="B822" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C822" t="s">
+        <v>31</v>
+      </c>
+      <c r="F822" t="s">
+        <v>696</v>
+      </c>
+      <c r="H822" t="s">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="823" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A823" t="s">
+        <v>0</v>
+      </c>
+      <c r="B823" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C823" t="s">
+        <v>28</v>
+      </c>
+      <c r="F823" t="s">
+        <v>696</v>
+      </c>
+      <c r="H823" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="824" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A824" t="s">
+        <v>0</v>
+      </c>
+      <c r="B824" t="s">
+        <v>1595</v>
+      </c>
+      <c r="C824" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="815" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A815" t="s">
-        <v>0</v>
-      </c>
-      <c r="B815" t="s">
-        <v>757</v>
-      </c>
-      <c r="C815" t="s">
+      <c r="F824" t="s">
+        <v>696</v>
+      </c>
+      <c r="H824" t="s">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="825" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A825" t="s">
+        <v>17</v>
+      </c>
+      <c r="B825" t="s">
+        <v>1596</v>
+      </c>
+      <c r="C825" t="s">
+        <v>1597</v>
+      </c>
+      <c r="F825" t="s">
+        <v>696</v>
+      </c>
+      <c r="H825" t="s">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="826" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B826" t="s">
+        <v>1598</v>
+      </c>
+      <c r="F826" t="s">
+        <v>692</v>
+      </c>
+      <c r="H826" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="827" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A827" t="s">
+        <v>17</v>
+      </c>
+      <c r="B827" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C827" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="816" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A816" t="s">
-        <v>17</v>
-      </c>
-      <c r="B816" t="s">
-        <v>1590</v>
-      </c>
-      <c r="C816" t="s">
+      <c r="F827" t="s">
+        <v>696</v>
+      </c>
+      <c r="H827" t="s">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="828" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A828" t="s">
+        <v>0</v>
+      </c>
+      <c r="B828" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C828" t="s">
+        <v>28</v>
+      </c>
+      <c r="F828" t="s">
+        <v>696</v>
+      </c>
+      <c r="H828" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="829" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A829" t="s">
+        <v>21</v>
+      </c>
+      <c r="B829" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C829" t="s">
+        <v>31</v>
+      </c>
+      <c r="F829" t="s">
+        <v>696</v>
+      </c>
+      <c r="H829" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="830" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A830" t="s">
+        <v>17</v>
+      </c>
+      <c r="B830" t="s">
+        <v>1603</v>
+      </c>
+      <c r="F830" t="s">
+        <v>696</v>
+      </c>
+      <c r="H830" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="831" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A831" t="s">
+        <v>17</v>
+      </c>
+      <c r="B831" t="s">
+        <v>1605</v>
+      </c>
+      <c r="C831" t="s">
+        <v>1606</v>
+      </c>
+      <c r="F831" t="s">
+        <v>696</v>
+      </c>
+      <c r="H831" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="832" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A832" t="s">
+        <v>0</v>
+      </c>
+      <c r="B832" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C832" t="s">
+        <v>25</v>
+      </c>
+      <c r="F832" t="s">
+        <v>696</v>
+      </c>
+      <c r="H832" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="833" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A833" t="s">
+        <v>21</v>
+      </c>
+      <c r="B833" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C833" t="s">
+        <v>1611</v>
+      </c>
+      <c r="F833" t="s">
+        <v>696</v>
+      </c>
+      <c r="H833" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="834" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B834" t="s">
+        <v>1613</v>
+      </c>
+      <c r="F834" t="s">
+        <v>695</v>
+      </c>
+      <c r="H834" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="835" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B835" t="s">
+        <v>1615</v>
+      </c>
+      <c r="F835" t="s">
+        <v>695</v>
+      </c>
+      <c r="H835" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="836" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B836" t="s">
+        <v>1617</v>
+      </c>
+      <c r="F836" t="s">
+        <v>695</v>
+      </c>
+      <c r="H836" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="837" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B837" t="s">
+        <v>1928</v>
+      </c>
+      <c r="F837" t="s">
+        <v>695</v>
+      </c>
+      <c r="H837" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="838" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B838" t="s">
+        <v>1618</v>
+      </c>
+      <c r="F838" t="s">
+        <v>695</v>
+      </c>
+      <c r="H838" t="s">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="839" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A839" t="s">
+        <v>17</v>
+      </c>
+      <c r="B839" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C839" t="s">
+        <v>25</v>
+      </c>
+      <c r="F839" t="s">
+        <v>696</v>
+      </c>
+      <c r="H839" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="840" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A840" t="s">
+        <v>17</v>
+      </c>
+      <c r="B840" t="s">
+        <v>1621</v>
+      </c>
+      <c r="C840" t="s">
+        <v>1622</v>
+      </c>
+      <c r="F840" t="s">
+        <v>696</v>
+      </c>
+      <c r="H840" t="s">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="841" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A841" t="s">
+        <v>17</v>
+      </c>
+      <c r="B841" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C841" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="817" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A817" t="s">
-        <v>0</v>
-      </c>
-      <c r="B817" t="s">
-        <v>1591</v>
-      </c>
-      <c r="C817" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="818" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A818" t="s">
-        <v>0</v>
-      </c>
-      <c r="B818" t="s">
-        <v>1592</v>
-      </c>
-      <c r="C818" t="s">
-        <v>1593</v>
-      </c>
-    </row>
-    <row r="819" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B819" t="s">
-        <v>1594</v>
-      </c>
-    </row>
-    <row r="820" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B820" t="s">
-        <v>1595</v>
-      </c>
-    </row>
-    <row r="821" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B821" t="s">
-        <v>1596</v>
-      </c>
-    </row>
-    <row r="822" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B822" t="s">
-        <v>1597</v>
-      </c>
-    </row>
-    <row r="823" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A823" t="s">
-        <v>17</v>
-      </c>
-      <c r="B823" t="s">
-        <v>1598</v>
-      </c>
-      <c r="C823" t="s">
+      <c r="F841" t="s">
+        <v>696</v>
+      </c>
+      <c r="H841" t="s">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="842" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A842" t="s">
+        <v>0</v>
+      </c>
+      <c r="B842" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C842" t="s">
+        <v>25</v>
+      </c>
+      <c r="F842" t="s">
+        <v>696</v>
+      </c>
+      <c r="H842" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="843" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A843" t="s">
+        <v>21</v>
+      </c>
+      <c r="B843" t="s">
+        <v>1625</v>
+      </c>
+      <c r="C843" t="s">
+        <v>1626</v>
+      </c>
+      <c r="F843" t="s">
+        <v>696</v>
+      </c>
+      <c r="H843" t="s">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="844" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A844" t="s">
+        <v>17</v>
+      </c>
+      <c r="B844" t="s">
+        <v>1627</v>
+      </c>
+      <c r="C844" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="824" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A824" t="s">
-        <v>0</v>
-      </c>
-      <c r="B824" t="s">
-        <v>1599</v>
-      </c>
-      <c r="C824" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="825" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A825" t="s">
-        <v>0</v>
-      </c>
-      <c r="B825" t="s">
-        <v>1600</v>
-      </c>
-      <c r="C825" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="826" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A826" t="s">
-        <v>17</v>
-      </c>
-      <c r="B826" t="s">
-        <v>1601</v>
-      </c>
-      <c r="C826" t="s">
-        <v>1602</v>
-      </c>
-    </row>
-    <row r="827" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B827" t="s">
-        <v>1603</v>
-      </c>
-      <c r="G827" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="828" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A828" t="s">
-        <v>17</v>
-      </c>
-      <c r="B828" t="s">
-        <v>1605</v>
-      </c>
-      <c r="C828" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="829" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A829" t="s">
-        <v>0</v>
-      </c>
-      <c r="B829" t="s">
-        <v>1606</v>
-      </c>
-      <c r="C829" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="830" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A830" t="s">
-        <v>21</v>
-      </c>
-      <c r="B830" t="s">
-        <v>1607</v>
-      </c>
-      <c r="C830" t="s">
-        <v>31</v>
-      </c>
-      <c r="G830" t="s">
-        <v>1608</v>
-      </c>
-    </row>
-    <row r="831" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A831" t="s">
-        <v>17</v>
-      </c>
-      <c r="B831" t="s">
-        <v>1609</v>
-      </c>
-      <c r="G831" t="s">
-        <v>1610</v>
-      </c>
-    </row>
-    <row r="832" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A832" t="s">
-        <v>17</v>
-      </c>
-      <c r="B832" t="s">
-        <v>1611</v>
-      </c>
-      <c r="C832" t="s">
-        <v>1612</v>
-      </c>
-      <c r="G832" t="s">
-        <v>1613</v>
-      </c>
-    </row>
-    <row r="833" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A833" t="s">
-        <v>0</v>
-      </c>
-      <c r="B833" t="s">
-        <v>1614</v>
-      </c>
-      <c r="C833" t="s">
-        <v>25</v>
-      </c>
-      <c r="G833" t="s">
-        <v>1615</v>
-      </c>
-    </row>
-    <row r="834" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A834" t="s">
-        <v>21</v>
-      </c>
-      <c r="B834" t="s">
-        <v>1616</v>
-      </c>
-      <c r="C834" t="s">
-        <v>1617</v>
-      </c>
-      <c r="G834" t="s">
-        <v>1618</v>
-      </c>
-    </row>
-    <row r="835" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B835" t="s">
-        <v>1619</v>
-      </c>
-      <c r="G835" t="s">
-        <v>1620</v>
-      </c>
-    </row>
-    <row r="836" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B836" t="s">
-        <v>1621</v>
-      </c>
-      <c r="G836" t="s">
-        <v>1622</v>
-      </c>
-    </row>
-    <row r="837" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B837" t="s">
-        <v>1623</v>
-      </c>
-    </row>
-    <row r="838" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B838" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="839" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B839" t="s">
-        <v>1625</v>
-      </c>
-    </row>
-    <row r="840" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A840" t="s">
-        <v>17</v>
-      </c>
-      <c r="B840" t="s">
-        <v>1626</v>
-      </c>
-      <c r="C840" t="s">
-        <v>25</v>
-      </c>
-      <c r="G840" t="s">
-        <v>1627</v>
-      </c>
-    </row>
-    <row r="841" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A841" t="s">
-        <v>17</v>
-      </c>
-      <c r="B841" t="s">
-        <v>1628</v>
-      </c>
-      <c r="C841" t="s">
-        <v>1629</v>
-      </c>
-    </row>
-    <row r="842" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A842" t="s">
-        <v>17</v>
-      </c>
-      <c r="B842" t="s">
-        <v>1630</v>
-      </c>
-      <c r="C842" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="843" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A843" t="s">
-        <v>0</v>
-      </c>
-      <c r="B843" t="s">
-        <v>1631</v>
-      </c>
-      <c r="C843" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="844" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A844" t="s">
-        <v>21</v>
-      </c>
-      <c r="B844" t="s">
-        <v>1632</v>
-      </c>
-      <c r="C844" t="s">
-        <v>1633</v>
-      </c>
-    </row>
-    <row r="845" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F844" t="s">
+        <v>696</v>
+      </c>
+      <c r="H844" t="s">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="845" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A845" t="s">
         <v>17</v>
       </c>
       <c r="B845" t="s">
-        <v>1634</v>
+        <v>1799</v>
       </c>
       <c r="C845" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="846" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F845" t="s">
+        <v>696</v>
+      </c>
+      <c r="H845" t="s">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="846" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A846" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B846" t="s">
-        <v>1635</v>
+        <v>1628</v>
       </c>
       <c r="C846" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="847" spans="1:7" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="F846" t="s">
+        <v>696</v>
+      </c>
+      <c r="H846" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="847" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A847" t="s">
         <v>0</v>
       </c>
       <c r="B847" t="s">
-        <v>1636</v>
+        <v>1629</v>
       </c>
       <c r="C847" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="848" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F847" t="s">
+        <v>696</v>
+      </c>
+      <c r="H847" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="848" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A848" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B848" t="s">
-        <v>1637</v>
+        <v>1630</v>
       </c>
       <c r="C848" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="849" spans="1:3" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="F848" t="s">
+        <v>696</v>
+      </c>
+      <c r="H848" t="s">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="849" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A849" t="s">
         <v>21</v>
       </c>
       <c r="B849" t="s">
-        <v>1638</v>
+        <v>1631</v>
       </c>
       <c r="C849" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="850" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1632</v>
+      </c>
+      <c r="F849" t="s">
+        <v>696</v>
+      </c>
+      <c r="H849" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="850" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A850" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B850" t="s">
-        <v>1639</v>
+        <v>1633</v>
       </c>
       <c r="C850" t="s">
-        <v>1640</v>
-      </c>
-    </row>
-    <row r="851" spans="1:3" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="F850" t="s">
+        <v>696</v>
+      </c>
+      <c r="H850" t="s">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="851" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A851" t="s">
         <v>0</v>
       </c>
       <c r="B851" t="s">
-        <v>1641</v>
+        <v>1634</v>
       </c>
       <c r="C851" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="852" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F851" t="s">
+        <v>696</v>
+      </c>
+      <c r="H851" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="852" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A852" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B852" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C852" t="s">
+        <v>31</v>
+      </c>
+      <c r="F852" t="s">
+        <v>696</v>
+      </c>
+      <c r="H852" t="s">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="853" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A853" t="s">
+        <v>0</v>
+      </c>
+      <c r="B853" t="s">
+        <v>1636</v>
+      </c>
+      <c r="C853" t="s">
+        <v>25</v>
+      </c>
+      <c r="F853" t="s">
+        <v>696</v>
+      </c>
+      <c r="H853" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="854" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A854" t="s">
+        <v>21</v>
+      </c>
+      <c r="B854" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C854" t="s">
+        <v>19</v>
+      </c>
+      <c r="F854" t="s">
+        <v>696</v>
+      </c>
+      <c r="H854" t="s">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="855" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A855" t="s">
+        <v>0</v>
+      </c>
+      <c r="B855" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C855" t="s">
+        <v>25</v>
+      </c>
+      <c r="F855" t="s">
+        <v>696</v>
+      </c>
+      <c r="H855" t="s">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="856" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A856" t="s">
+        <v>17</v>
+      </c>
+      <c r="B856" t="s">
+        <v>1639</v>
+      </c>
+      <c r="C856" t="s">
+        <v>1640</v>
+      </c>
+      <c r="F856" t="s">
+        <v>696</v>
+      </c>
+      <c r="H856" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="857" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A857" t="s">
+        <v>0</v>
+      </c>
+      <c r="B857" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C857" t="s">
+        <v>25</v>
+      </c>
+      <c r="F857" t="s">
+        <v>696</v>
+      </c>
+      <c r="H857" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="858" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A858" t="s">
+        <v>0</v>
+      </c>
+      <c r="B858" t="s">
         <v>1642</v>
-      </c>
-      <c r="C852" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="853" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A853" t="s">
-        <v>21</v>
-      </c>
-      <c r="B853" t="s">
-        <v>1643</v>
-      </c>
-      <c r="C853" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="854" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A854" t="s">
-        <v>0</v>
-      </c>
-      <c r="B854" t="s">
-        <v>1644</v>
-      </c>
-      <c r="C854" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="855" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A855" t="s">
-        <v>21</v>
-      </c>
-      <c r="B855" t="s">
-        <v>1645</v>
-      </c>
-      <c r="C855" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="856" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A856" t="s">
-        <v>0</v>
-      </c>
-      <c r="B856" t="s">
-        <v>1646</v>
-      </c>
-      <c r="C856" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="857" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A857" t="s">
-        <v>17</v>
-      </c>
-      <c r="B857" t="s">
-        <v>1647</v>
-      </c>
-      <c r="C857" t="s">
-        <v>1648</v>
-      </c>
-    </row>
-    <row r="858" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A858" t="s">
-        <v>0</v>
-      </c>
-      <c r="B858" t="s">
-        <v>1649</v>
       </c>
       <c r="C858" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="859" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F858" t="s">
+        <v>696</v>
+      </c>
+      <c r="H858" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="859" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A859" t="s">
         <v>0</v>
       </c>
       <c r="B859" t="s">
-        <v>1650</v>
+        <v>1643</v>
       </c>
       <c r="C859" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="860" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F859" t="s">
+        <v>696</v>
+      </c>
+      <c r="H859" t="s">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="860" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A860" t="s">
         <v>0</v>
       </c>
       <c r="B860" t="s">
-        <v>1651</v>
+        <v>1644</v>
       </c>
       <c r="C860" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="861" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F860" t="s">
+        <v>696</v>
+      </c>
+      <c r="H860" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="861" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A861" t="s">
         <v>0</v>
       </c>
       <c r="B861" t="s">
-        <v>1652</v>
+        <v>1645</v>
       </c>
       <c r="C861" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="862" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F861" t="s">
+        <v>696</v>
+      </c>
+      <c r="H861" t="s">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="862" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A862" t="s">
         <v>0</v>
       </c>
       <c r="B862" t="s">
-        <v>1653</v>
+        <v>1646</v>
       </c>
       <c r="C862" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="863" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F862" t="s">
+        <v>696</v>
+      </c>
+      <c r="H862" t="s">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="863" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A863" t="s">
         <v>0</v>
       </c>
       <c r="B863" t="s">
-        <v>1654</v>
+        <v>1647</v>
       </c>
       <c r="C863" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="864" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F863" t="s">
+        <v>696</v>
+      </c>
+      <c r="H863" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="864" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A864" t="s">
         <v>0</v>
       </c>
       <c r="B864" t="s">
-        <v>1655</v>
+        <v>1648</v>
       </c>
       <c r="C864" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="865" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F864" t="s">
+        <v>696</v>
+      </c>
+      <c r="H864" t="s">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="865" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A865" t="s">
         <v>0</v>
       </c>
       <c r="B865" t="s">
-        <v>1656</v>
+        <v>1649</v>
       </c>
       <c r="C865" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="866" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F865" t="s">
+        <v>696</v>
+      </c>
+      <c r="H865" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="866" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A866" t="s">
         <v>0</v>
       </c>
       <c r="B866" t="s">
-        <v>1657</v>
+        <v>1650</v>
       </c>
       <c r="C866" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="867" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F866" t="s">
+        <v>696</v>
+      </c>
+      <c r="H866" t="s">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="867" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A867" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B867" t="s">
-        <v>1658</v>
+        <v>1651</v>
       </c>
       <c r="C867" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="868" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="F867" t="s">
+        <v>696</v>
+      </c>
+      <c r="H867" t="s">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="868" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A868" t="s">
         <v>17</v>
       </c>
       <c r="B868" t="s">
-        <v>1659</v>
+        <v>1652</v>
       </c>
       <c r="C868" t="s">
+        <v>31</v>
+      </c>
+      <c r="F868" t="s">
+        <v>696</v>
+      </c>
+      <c r="H868" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="869" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A869" t="s">
+        <v>0</v>
+      </c>
+      <c r="B869" t="s">
+        <v>1653</v>
+      </c>
+      <c r="C869" t="s">
+        <v>1654</v>
+      </c>
+      <c r="F869" t="s">
+        <v>696</v>
+      </c>
+      <c r="H869" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="870" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A870" t="s">
+        <v>17</v>
+      </c>
+      <c r="B870" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C870" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="869" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A869" t="s">
-        <v>17</v>
-      </c>
-      <c r="B869" t="s">
-        <v>1660</v>
-      </c>
-      <c r="C869" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="870" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A870" t="s">
-        <v>0</v>
-      </c>
-      <c r="B870" t="s">
-        <v>1661</v>
-      </c>
-      <c r="C870" t="s">
-        <v>1662</v>
-      </c>
-    </row>
-    <row r="871" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F870" t="s">
+        <v>696</v>
+      </c>
+      <c r="H870" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="871" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A871" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B871" t="s">
-        <v>1663</v>
+        <v>1656</v>
       </c>
       <c r="C871" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="872" spans="1:3" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="F871" t="s">
+        <v>696</v>
+      </c>
+      <c r="H871" t="s">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="872" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A872" t="s">
         <v>21</v>
       </c>
       <c r="B872" t="s">
-        <v>1664</v>
+        <v>1657</v>
       </c>
       <c r="C872" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="873" spans="1:3" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="F872" t="s">
+        <v>696</v>
+      </c>
+      <c r="H872" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="873" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A873" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B873" t="s">
-        <v>1665</v>
+        <v>1658</v>
       </c>
       <c r="C873" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="874" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F873" t="s">
+        <v>696</v>
+      </c>
+      <c r="H873" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="874" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A874" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B874" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C874" t="s">
+        <v>2</v>
+      </c>
+      <c r="F874" t="s">
+        <v>696</v>
+      </c>
+      <c r="H874" t="s">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="875" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A875" t="s">
+        <v>0</v>
+      </c>
+      <c r="B875" t="s">
+        <v>1660</v>
+      </c>
+      <c r="C875" t="s">
+        <v>25</v>
+      </c>
+      <c r="F875" t="s">
+        <v>696</v>
+      </c>
+      <c r="H875" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="876" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A876" t="s">
+        <v>17</v>
+      </c>
+      <c r="B876" t="s">
+        <v>1661</v>
+      </c>
+      <c r="C876" t="s">
+        <v>31</v>
+      </c>
+      <c r="F876" t="s">
+        <v>696</v>
+      </c>
+      <c r="H876" t="s">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="877" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A877" t="s">
+        <v>21</v>
+      </c>
+      <c r="B877" t="s">
+        <v>1662</v>
+      </c>
+      <c r="F877" t="s">
+        <v>696</v>
+      </c>
+      <c r="H877" t="s">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="878" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A878" t="s">
+        <v>17</v>
+      </c>
+      <c r="B878" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C878" t="s">
+        <v>1664</v>
+      </c>
+      <c r="F878" t="s">
+        <v>696</v>
+      </c>
+      <c r="H878" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="879" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A879" t="s">
+        <v>17</v>
+      </c>
+      <c r="B879" t="s">
+        <v>1665</v>
+      </c>
+      <c r="C879" t="s">
+        <v>19</v>
+      </c>
+      <c r="F879" t="s">
+        <v>696</v>
+      </c>
+      <c r="H879" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="880" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A880" t="s">
+        <v>21</v>
+      </c>
+      <c r="B880" t="s">
         <v>1666</v>
-      </c>
-      <c r="C874" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="875" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A875" t="s">
-        <v>0</v>
-      </c>
-      <c r="B875" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C875" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="876" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A876" t="s">
-        <v>0</v>
-      </c>
-      <c r="B876" t="s">
-        <v>1668</v>
-      </c>
-      <c r="C876" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="877" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A877" t="s">
-        <v>17</v>
-      </c>
-      <c r="B877" t="s">
-        <v>1669</v>
-      </c>
-      <c r="C877" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="878" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A878" t="s">
-        <v>21</v>
-      </c>
-      <c r="B878" t="s">
-        <v>1670</v>
-      </c>
-    </row>
-    <row r="879" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A879" t="s">
-        <v>17</v>
-      </c>
-      <c r="B879" t="s">
-        <v>1671</v>
-      </c>
-      <c r="C879" t="s">
-        <v>1672</v>
-      </c>
-    </row>
-    <row r="880" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A880" t="s">
-        <v>17</v>
-      </c>
-      <c r="B880" t="s">
-        <v>1673</v>
       </c>
       <c r="C880" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="881" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F880" t="s">
+        <v>696</v>
+      </c>
+      <c r="H880" t="s">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="881" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A881" t="s">
+        <v>17</v>
+      </c>
+      <c r="B881" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C881" t="s">
+        <v>1668</v>
+      </c>
+      <c r="F881" t="s">
+        <v>696</v>
+      </c>
+      <c r="H881" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="882" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A882" t="s">
         <v>21</v>
       </c>
-      <c r="B881" t="s">
+      <c r="B882" t="s">
+        <v>1669</v>
+      </c>
+      <c r="C882" t="s">
+        <v>31</v>
+      </c>
+      <c r="F882" t="s">
+        <v>696</v>
+      </c>
+      <c r="H882" t="s">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="883" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B883" t="s">
+        <v>1670</v>
+      </c>
+      <c r="F883" t="s">
+        <v>692</v>
+      </c>
+      <c r="H883" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="884" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B884" t="s">
+        <v>1671</v>
+      </c>
+      <c r="F884" t="s">
+        <v>695</v>
+      </c>
+      <c r="H884" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="885" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B885" t="s">
+        <v>1672</v>
+      </c>
+      <c r="F885" t="s">
+        <v>695</v>
+      </c>
+      <c r="H885" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="886" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B886" t="s">
+        <v>433</v>
+      </c>
+      <c r="F886" t="s">
+        <v>695</v>
+      </c>
+      <c r="H886" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="887" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B887" t="s">
+        <v>1673</v>
+      </c>
+      <c r="F887" t="s">
+        <v>695</v>
+      </c>
+      <c r="H887" t="s">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="888" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B888" t="s">
         <v>1674</v>
       </c>
-      <c r="C881" t="s">
+      <c r="F888" t="s">
+        <v>695</v>
+      </c>
+      <c r="H888" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="889" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B889" t="s">
+        <v>1675</v>
+      </c>
+      <c r="F889" t="s">
+        <v>695</v>
+      </c>
+      <c r="H889" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="890" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B890" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F890" t="s">
+        <v>695</v>
+      </c>
+      <c r="H890" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="891" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B891" t="s">
+        <v>1677</v>
+      </c>
+      <c r="F891" t="s">
+        <v>695</v>
+      </c>
+      <c r="H891" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="892" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B892" t="s">
+        <v>1678</v>
+      </c>
+      <c r="F892" t="s">
+        <v>695</v>
+      </c>
+      <c r="H892" t="s">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="893" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B893" t="s">
+        <v>1679</v>
+      </c>
+      <c r="F893" t="s">
+        <v>695</v>
+      </c>
+      <c r="H893" t="s">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="894" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B894" t="s">
+        <v>1680</v>
+      </c>
+      <c r="F894" t="s">
+        <v>695</v>
+      </c>
+      <c r="H894" t="s">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="895" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B895" t="s">
+        <v>209</v>
+      </c>
+      <c r="F895" t="s">
+        <v>695</v>
+      </c>
+      <c r="H895" t="s">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="896" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B896" t="s">
+        <v>1681</v>
+      </c>
+      <c r="F896" t="s">
+        <v>695</v>
+      </c>
+      <c r="H896" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="897" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B897" t="s">
+        <v>1682</v>
+      </c>
+      <c r="F897" t="s">
+        <v>695</v>
+      </c>
+      <c r="H897" t="s">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="898" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B898" t="s">
+        <v>1683</v>
+      </c>
+      <c r="F898" t="s">
+        <v>695</v>
+      </c>
+      <c r="H898" t="s">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="899" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B899" t="s">
+        <v>238</v>
+      </c>
+      <c r="F899" t="s">
+        <v>695</v>
+      </c>
+      <c r="H899" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="900" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B900" t="s">
+        <v>1684</v>
+      </c>
+      <c r="F900" t="s">
+        <v>695</v>
+      </c>
+      <c r="H900" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="901" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B901" t="s">
+        <v>232</v>
+      </c>
+      <c r="F901" t="s">
+        <v>695</v>
+      </c>
+      <c r="H901" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="902" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B902" t="s">
+        <v>1685</v>
+      </c>
+      <c r="F902" t="s">
+        <v>695</v>
+      </c>
+      <c r="H902" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="903" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B903" t="s">
+        <v>1686</v>
+      </c>
+      <c r="F903" t="s">
+        <v>695</v>
+      </c>
+      <c r="H903" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="904" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B904" t="s">
+        <v>408</v>
+      </c>
+      <c r="F904" t="s">
+        <v>695</v>
+      </c>
+      <c r="H904" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="905" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A905" t="s">
+        <v>17</v>
+      </c>
+      <c r="B905" t="s">
+        <v>1687</v>
+      </c>
+      <c r="F905" t="s">
+        <v>696</v>
+      </c>
+      <c r="H905" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="906" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B906" t="s">
+        <v>1688</v>
+      </c>
+      <c r="F906" t="s">
+        <v>695</v>
+      </c>
+      <c r="H906" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="907" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B907" t="s">
+        <v>1689</v>
+      </c>
+      <c r="F907" t="s">
+        <v>695</v>
+      </c>
+      <c r="H907" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="908" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A908" t="s">
+        <v>17</v>
+      </c>
+      <c r="B908" t="s">
+        <v>1690</v>
+      </c>
+      <c r="C908" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="882" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A882" t="s">
-        <v>17</v>
-      </c>
-      <c r="B882" t="s">
-        <v>1675</v>
-      </c>
-      <c r="C882" t="s">
-        <v>1676</v>
-      </c>
-    </row>
-    <row r="883" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A883" t="s">
+      <c r="F908" t="s">
+        <v>696</v>
+      </c>
+      <c r="H908" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="909" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A909" t="s">
         <v>21</v>
       </c>
-      <c r="B883" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C883" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="884" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B884" t="s">
-        <v>1678</v>
-      </c>
-    </row>
-    <row r="885" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B885" t="s">
-        <v>1679</v>
-      </c>
-    </row>
-    <row r="886" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B886" t="s">
-        <v>1680</v>
-      </c>
-    </row>
-    <row r="887" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B887" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="888" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B888" t="s">
-        <v>1681</v>
-      </c>
-    </row>
-    <row r="889" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B889" t="s">
-        <v>1682</v>
-      </c>
-    </row>
-    <row r="890" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B890" t="s">
-        <v>1683</v>
-      </c>
-    </row>
-    <row r="891" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B891" t="s">
-        <v>1684</v>
-      </c>
-    </row>
-    <row r="892" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B892" t="s">
-        <v>1685</v>
-      </c>
-    </row>
-    <row r="893" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B893" t="s">
-        <v>1686</v>
-      </c>
-    </row>
-    <row r="894" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B894" t="s">
-        <v>1687</v>
-      </c>
-    </row>
-    <row r="895" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B895" t="s">
-        <v>1688</v>
-      </c>
-    </row>
-    <row r="896" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B896" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="897" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B897" t="s">
-        <v>1689</v>
-      </c>
-    </row>
-    <row r="898" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B898" t="s">
-        <v>1690</v>
-      </c>
-    </row>
-    <row r="899" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B899" t="s">
+      <c r="B909" t="s">
         <v>1691</v>
       </c>
-    </row>
-    <row r="900" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B900" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="901" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B901" t="s">
+      <c r="C909" t="s">
+        <v>19</v>
+      </c>
+      <c r="F909" t="s">
+        <v>696</v>
+      </c>
+      <c r="H909" t="s">
         <v>1692</v>
       </c>
     </row>
-    <row r="902" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B902" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="903" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B903" t="s">
-        <v>1693</v>
-      </c>
-    </row>
-    <row r="904" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B904" t="s">
-        <v>1694</v>
-      </c>
-    </row>
-    <row r="905" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B905" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="906" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B906" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="907" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B907" t="s">
-        <v>1696</v>
-      </c>
-    </row>
-    <row r="908" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B908" t="s">
-        <v>1697</v>
-      </c>
-    </row>
-    <row r="909" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B909" t="s">
-        <v>1698</v>
-      </c>
-    </row>
-    <row r="910" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A910" t="s">
         <v>21</v>
       </c>
       <c r="B910" t="s">
-        <v>1699</v>
+        <v>1693</v>
       </c>
       <c r="C910" t="s">
         <v>19</v>
       </c>
-      <c r="G910" t="s">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="911" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F910" t="s">
+        <v>696</v>
+      </c>
+      <c r="H910" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="911" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A911" t="s">
         <v>21</v>
       </c>
       <c r="B911" t="s">
-        <v>1701</v>
+        <v>1694</v>
       </c>
       <c r="C911" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="912" spans="1:7" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="F911" t="s">
+        <v>696</v>
+      </c>
+      <c r="H911" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="912" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A912" t="s">
         <v>21</v>
       </c>
       <c r="B912" t="s">
-        <v>1702</v>
+        <v>1695</v>
       </c>
       <c r="C912" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="913" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F912" t="s">
+        <v>696</v>
+      </c>
+      <c r="H912" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="913" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A913" t="s">
         <v>21</v>
       </c>
       <c r="B913" t="s">
-        <v>1703</v>
+        <v>1696</v>
       </c>
       <c r="C913" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="914" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2002</v>
+      </c>
+      <c r="F913" t="s">
+        <v>696</v>
+      </c>
+      <c r="H913" t="s">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="914" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A914" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B914" t="s">
-        <v>1704</v>
-      </c>
-    </row>
-    <row r="915" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1697</v>
+      </c>
+      <c r="C914" t="s">
+        <v>25</v>
+      </c>
+      <c r="F914" t="s">
+        <v>696</v>
+      </c>
+      <c r="H914" t="s">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="915" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A915" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B915" t="s">
-        <v>1705</v>
+        <v>1698</v>
       </c>
       <c r="C915" t="s">
+        <v>19</v>
+      </c>
+      <c r="F915" t="s">
+        <v>696</v>
+      </c>
+      <c r="H915" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="916" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A916" t="s">
+        <v>0</v>
+      </c>
+      <c r="B916" t="s">
+        <v>1700</v>
+      </c>
+      <c r="C916" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="916" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A916" t="s">
-        <v>17</v>
-      </c>
-      <c r="B916" t="s">
-        <v>1706</v>
-      </c>
-      <c r="C916" t="s">
-        <v>19</v>
-      </c>
-      <c r="G916" t="s">
-        <v>1707</v>
-      </c>
-    </row>
-    <row r="917" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F916" t="s">
+        <v>696</v>
+      </c>
+      <c r="H916" t="s">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="917" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A917" t="s">
         <v>0</v>
       </c>
       <c r="B917" t="s">
-        <v>1708</v>
+        <v>2006</v>
       </c>
       <c r="C917" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="918" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F917" t="s">
+        <v>696</v>
+      </c>
+      <c r="H917" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="918" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A918" t="s">
         <v>0</v>
       </c>
       <c r="B918" t="s">
-        <v>1709</v>
+        <v>1701</v>
       </c>
       <c r="C918" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="919" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F918" t="s">
+        <v>696</v>
+      </c>
+      <c r="H918" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="919" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A919" t="s">
         <v>0</v>
       </c>
       <c r="B919" t="s">
-        <v>1710</v>
+        <v>1702</v>
       </c>
       <c r="C919" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="920" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F919" t="s">
+        <v>696</v>
+      </c>
+      <c r="H919" t="s">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="920" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A920" t="s">
         <v>0</v>
       </c>
       <c r="B920" t="s">
-        <v>1711</v>
+        <v>1703</v>
       </c>
       <c r="C920" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="921" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F920" t="s">
+        <v>696</v>
+      </c>
+      <c r="H920" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="921" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A921" t="s">
         <v>0</v>
       </c>
       <c r="B921" t="s">
-        <v>1712</v>
+        <v>1704</v>
       </c>
       <c r="C921" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="922" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F921" t="s">
+        <v>696</v>
+      </c>
+      <c r="H921" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="922" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A922" t="s">
         <v>0</v>
       </c>
       <c r="B922" t="s">
-        <v>1713</v>
+        <v>1705</v>
       </c>
       <c r="C922" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="923" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F922" t="s">
+        <v>696</v>
+      </c>
+      <c r="H922" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="923" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A923" t="s">
         <v>0</v>
       </c>
       <c r="B923" t="s">
-        <v>1714</v>
+        <v>1706</v>
       </c>
       <c r="C923" t="s">
+        <v>1707</v>
+      </c>
+      <c r="F923" t="s">
+        <v>696</v>
+      </c>
+      <c r="H923" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="924" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A924" t="s">
+        <v>0</v>
+      </c>
+      <c r="B924" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C924" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="924" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A924" t="s">
-        <v>0</v>
-      </c>
-      <c r="B924" t="s">
-        <v>1715</v>
-      </c>
-      <c r="C924" t="s">
-        <v>1716</v>
-      </c>
-    </row>
-    <row r="925" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F924" t="s">
+        <v>696</v>
+      </c>
+      <c r="H924" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="925" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A925" t="s">
         <v>0</v>
       </c>
       <c r="B925" t="s">
-        <v>1717</v>
-      </c>
-      <c r="C925" t="s">
+        <v>1709</v>
+      </c>
+      <c r="F925" t="s">
+        <v>696</v>
+      </c>
+      <c r="H925" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="926" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A926" t="s">
+        <v>0</v>
+      </c>
+      <c r="B926" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C926" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="926" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A926" t="s">
-        <v>0</v>
-      </c>
-      <c r="B926" t="s">
-        <v>1718</v>
-      </c>
-      <c r="C926" t="s">
-        <v>1676</v>
-      </c>
-    </row>
-    <row r="927" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F926" t="s">
+        <v>696</v>
+      </c>
+      <c r="H926" t="s">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="927" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A927" t="s">
         <v>0</v>
       </c>
       <c r="B927" t="s">
-        <v>1719</v>
+        <v>1711</v>
       </c>
       <c r="C927" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="928" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F927" t="s">
+        <v>696</v>
+      </c>
+      <c r="H927" t="s">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="928" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A928" t="s">
         <v>0</v>
       </c>
       <c r="B928" t="s">
-        <v>1720</v>
+        <v>1712</v>
       </c>
       <c r="C928" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="929" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F928" t="s">
+        <v>696</v>
+      </c>
+      <c r="H928" t="s">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="929" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A929" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B929" t="s">
-        <v>1721</v>
-      </c>
-      <c r="C929" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F929" t="s">
+        <v>696</v>
+      </c>
+      <c r="H929" t="s">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="930" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A930" t="s">
+        <v>0</v>
+      </c>
+      <c r="B930" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C930" t="s">
+        <v>1715</v>
+      </c>
+      <c r="F930" t="s">
+        <v>696</v>
+      </c>
+      <c r="H930" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="931" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A931" t="s">
+        <v>17</v>
+      </c>
+      <c r="B931" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C931" t="s">
+        <v>65</v>
+      </c>
+      <c r="F931" t="s">
+        <v>696</v>
+      </c>
+      <c r="H931" t="s">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="932" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A932" t="s">
+        <v>0</v>
+      </c>
+      <c r="B932" t="s">
+        <v>1718</v>
+      </c>
+      <c r="C932" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="930" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A930" t="s">
-        <v>21</v>
-      </c>
-      <c r="B930" t="s">
-        <v>1722</v>
-      </c>
-    </row>
-    <row r="931" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A931" t="s">
-        <v>0</v>
-      </c>
-      <c r="B931" t="s">
-        <v>1723</v>
-      </c>
-      <c r="C931" t="s">
-        <v>1724</v>
-      </c>
-      <c r="G931" t="s">
-        <v>1725</v>
-      </c>
-    </row>
-    <row r="932" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A932" t="s">
-        <v>17</v>
-      </c>
-      <c r="B932" t="s">
-        <v>1726</v>
-      </c>
-      <c r="C932" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="933" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F932" t="s">
+        <v>696</v>
+      </c>
+      <c r="H932" t="s">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="933" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A933" t="s">
         <v>0</v>
       </c>
       <c r="B933" t="s">
-        <v>1727</v>
+        <v>2021</v>
       </c>
       <c r="C933" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="934" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F933" t="s">
+        <v>696</v>
+      </c>
+      <c r="H933" t="s">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="934" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A934" t="s">
         <v>0</v>
       </c>
       <c r="B934" t="s">
-        <v>1728</v>
+        <v>1719</v>
       </c>
       <c r="C934" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="935" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F934" t="s">
+        <v>696</v>
+      </c>
+      <c r="H934" t="s">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="935" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A935" t="s">
         <v>17</v>
       </c>
       <c r="B935" t="s">
-        <v>1729</v>
+        <v>1720</v>
       </c>
       <c r="C935" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="936" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F935" t="s">
+        <v>696</v>
+      </c>
+      <c r="H935" t="s">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="936" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A936" t="s">
         <v>17</v>
       </c>
       <c r="B936" t="s">
-        <v>1730</v>
+        <v>1721</v>
       </c>
       <c r="C936" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="937" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F936" t="s">
+        <v>696</v>
+      </c>
+      <c r="H936" t="s">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="937" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A937" t="s">
         <v>0</v>
       </c>
       <c r="B937" t="s">
-        <v>1731</v>
+        <v>1722</v>
       </c>
       <c r="C937" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="938" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F937" t="s">
+        <v>696</v>
+      </c>
+      <c r="H937" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="938" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A938" t="s">
         <v>17</v>
       </c>
       <c r="B938" t="s">
-        <v>1732</v>
-      </c>
-      <c r="G938" t="s">
-        <v>1735</v>
-      </c>
-    </row>
-    <row r="939" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1723</v>
+      </c>
+      <c r="F938" t="s">
+        <v>696</v>
+      </c>
+      <c r="H938" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="939" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A939" t="s">
         <v>17</v>
       </c>
       <c r="B939" t="s">
-        <v>1733</v>
-      </c>
-      <c r="G939" t="s">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="940" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2026</v>
+      </c>
+      <c r="C939" t="s">
+        <v>31</v>
+      </c>
+      <c r="F939" t="s">
+        <v>696</v>
+      </c>
+      <c r="H939" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="940" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A940" t="s">
         <v>17</v>
       </c>
       <c r="B940" t="s">
-        <v>1736</v>
-      </c>
-    </row>
-    <row r="941" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1726</v>
+      </c>
+      <c r="C940" t="s">
+        <v>19</v>
+      </c>
+      <c r="F940" t="s">
+        <v>696</v>
+      </c>
+      <c r="H940" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="941" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A941" t="s">
         <v>17</v>
       </c>
       <c r="B941" t="s">
-        <v>1737</v>
+        <v>1727</v>
       </c>
       <c r="C941" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="942" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F941" t="s">
+        <v>696</v>
+      </c>
+      <c r="H941" t="s">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="942" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A942" t="s">
         <v>17</v>
       </c>
       <c r="B942" t="s">
-        <v>1738</v>
+        <v>1728</v>
       </c>
       <c r="C942" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="943" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F942" t="s">
+        <v>696</v>
+      </c>
+      <c r="H942" t="s">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="943" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A943" t="s">
         <v>0</v>
       </c>
       <c r="B943" t="s">
-        <v>1739</v>
+        <v>1729</v>
       </c>
       <c r="C943" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="944" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F943" t="s">
+        <v>696</v>
+      </c>
+      <c r="H943" t="s">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="944" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A944" t="s">
         <v>0</v>
       </c>
       <c r="B944" t="s">
-        <v>1740</v>
+        <v>1730</v>
       </c>
       <c r="C944" t="s">
         <v>25</v>
       </c>
-      <c r="G944" t="s">
-        <v>1743</v>
-      </c>
-    </row>
-    <row r="945" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F944" t="s">
+        <v>696</v>
+      </c>
+      <c r="H944" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="945" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A945" t="s">
         <v>17</v>
       </c>
       <c r="B945" t="s">
-        <v>1741</v>
-      </c>
-      <c r="G945" t="s">
-        <v>1742</v>
-      </c>
-    </row>
-    <row r="946" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1731</v>
+      </c>
+      <c r="C945" t="s">
+        <v>19</v>
+      </c>
+      <c r="F945" t="s">
+        <v>696</v>
+      </c>
+      <c r="H945" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="946" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A946" t="s">
         <v>0</v>
       </c>
       <c r="B946" t="s">
-        <v>1744</v>
-      </c>
-    </row>
-    <row r="947" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1734</v>
+      </c>
+      <c r="F946" t="s">
+        <v>696</v>
+      </c>
+      <c r="H946" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="947" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A947" t="s">
         <v>0</v>
       </c>
       <c r="B947" t="s">
-        <v>1745</v>
-      </c>
-    </row>
-    <row r="948" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1735</v>
+      </c>
+      <c r="C947" t="s">
+        <v>31</v>
+      </c>
+      <c r="F947" t="s">
+        <v>696</v>
+      </c>
+      <c r="H947" t="s">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="948" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A948" t="s">
         <v>0</v>
       </c>
       <c r="B948" t="s">
-        <v>1746</v>
-      </c>
-    </row>
-    <row r="949" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1736</v>
+      </c>
+      <c r="C948" t="s">
+        <v>25</v>
+      </c>
+      <c r="F948" t="s">
+        <v>696</v>
+      </c>
+      <c r="H948" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="949" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A949" t="s">
         <v>17</v>
       </c>
       <c r="B949" t="s">
-        <v>1747</v>
-      </c>
-    </row>
-    <row r="950" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1737</v>
+      </c>
+      <c r="C949" t="s">
+        <v>31</v>
+      </c>
+      <c r="F949" t="s">
+        <v>696</v>
+      </c>
+      <c r="H949" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="950" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A950" t="s">
         <v>21</v>
       </c>
       <c r="B950" t="s">
-        <v>1748</v>
-      </c>
-    </row>
-    <row r="951" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1738</v>
+      </c>
+      <c r="F950" t="s">
+        <v>696</v>
+      </c>
+      <c r="H950" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="951" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A951" t="s">
         <v>0</v>
       </c>
       <c r="B951" t="s">
-        <v>1749</v>
+        <v>1739</v>
       </c>
       <c r="C951" t="s">
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="952" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1740</v>
+      </c>
+      <c r="F951" t="s">
+        <v>696</v>
+      </c>
+      <c r="H951" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="952" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A952" t="s">
         <v>17</v>
       </c>
       <c r="B952" t="s">
-        <v>1751</v>
+        <v>1741</v>
       </c>
       <c r="C952" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="953" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F952" t="s">
+        <v>696</v>
+      </c>
+      <c r="H952" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="953" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A953" t="s">
         <v>21</v>
       </c>
       <c r="B953" t="s">
-        <v>1752</v>
+        <v>1742</v>
       </c>
       <c r="C953" t="s">
         <v>19</v>
       </c>
-      <c r="E953" t="s">
-        <v>696</v>
-      </c>
-      <c r="G953" t="s">
-        <v>1756</v>
-      </c>
-    </row>
-    <row r="954" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F953" t="s">
+        <v>696</v>
+      </c>
+      <c r="H953" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="954" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A954" t="s">
         <v>21</v>
       </c>
       <c r="B954" t="s">
-        <v>1753</v>
+        <v>1743</v>
       </c>
       <c r="C954" t="s">
-        <v>1754</v>
-      </c>
-      <c r="E954" t="s">
-        <v>696</v>
-      </c>
-      <c r="G954" t="s">
-        <v>1755</v>
-      </c>
-    </row>
-    <row r="955" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1744</v>
+      </c>
+      <c r="F954" t="s">
+        <v>696</v>
+      </c>
+      <c r="H954" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="955" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A955" t="s">
         <v>21</v>
       </c>
       <c r="B955" t="s">
-        <v>1757</v>
+        <v>1747</v>
       </c>
       <c r="C955" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="956" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F955" t="s">
+        <v>696</v>
+      </c>
+      <c r="H955" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="956" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A956" t="s">
         <v>17</v>
       </c>
       <c r="B956" t="s">
-        <v>1758</v>
+        <v>1748</v>
       </c>
       <c r="C956" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="957" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F956" t="s">
+        <v>696</v>
+      </c>
+      <c r="H956" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="957" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A957" t="s">
         <v>17</v>
       </c>
       <c r="B957" t="s">
+        <v>1749</v>
+      </c>
+      <c r="F957" t="s">
+        <v>696</v>
+      </c>
+      <c r="H957" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="958" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A958" t="s">
+        <v>17</v>
+      </c>
+      <c r="B958" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C958" t="s">
+        <v>19</v>
+      </c>
+      <c r="F958" t="s">
+        <v>696</v>
+      </c>
+      <c r="H958" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="959" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A959" t="s">
+        <v>17</v>
+      </c>
+      <c r="B959" t="s">
+        <v>1751</v>
+      </c>
+      <c r="C959" t="s">
+        <v>19</v>
+      </c>
+      <c r="F959" t="s">
+        <v>696</v>
+      </c>
+      <c r="H959" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="960" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A960" t="s">
+        <v>17</v>
+      </c>
+      <c r="B960" t="s">
+        <v>1752</v>
+      </c>
+      <c r="F960" t="s">
+        <v>696</v>
+      </c>
+      <c r="H960" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="961" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A961" t="s">
+        <v>17</v>
+      </c>
+      <c r="B961" t="s">
+        <v>1753</v>
+      </c>
+      <c r="C961" t="s">
+        <v>31</v>
+      </c>
+      <c r="F961" t="s">
+        <v>696</v>
+      </c>
+      <c r="H961" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="962" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A962" t="s">
+        <v>17</v>
+      </c>
+      <c r="B962" t="s">
+        <v>1754</v>
+      </c>
+      <c r="C962" t="s">
+        <v>19</v>
+      </c>
+      <c r="F962" t="s">
+        <v>696</v>
+      </c>
+      <c r="H962" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="963" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A963" t="s">
+        <v>17</v>
+      </c>
+      <c r="B963" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C963" t="s">
+        <v>31</v>
+      </c>
+      <c r="F963" t="s">
+        <v>696</v>
+      </c>
+      <c r="H963" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="964" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A964" t="s">
+        <v>0</v>
+      </c>
+      <c r="B964" t="s">
+        <v>1756</v>
+      </c>
+      <c r="C964" t="s">
+        <v>25</v>
+      </c>
+      <c r="F964" t="s">
+        <v>696</v>
+      </c>
+      <c r="H964" t="s">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="965" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A965" t="s">
+        <v>17</v>
+      </c>
+      <c r="B965" t="s">
+        <v>2048</v>
+      </c>
+      <c r="C965" t="s">
+        <v>31</v>
+      </c>
+      <c r="F965" t="s">
+        <v>696</v>
+      </c>
+      <c r="H965" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="966" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A966" t="s">
+        <v>21</v>
+      </c>
+      <c r="B966" t="s">
+        <v>1757</v>
+      </c>
+      <c r="C966" t="s">
+        <v>65</v>
+      </c>
+      <c r="F966" t="s">
+        <v>696</v>
+      </c>
+      <c r="H966" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="967" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A967" t="s">
+        <v>17</v>
+      </c>
+      <c r="B967" t="s">
+        <v>1758</v>
+      </c>
+      <c r="F967" t="s">
+        <v>696</v>
+      </c>
+      <c r="H967" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="968" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A968" t="s">
+        <v>0</v>
+      </c>
+      <c r="B968" t="s">
+        <v>2052</v>
+      </c>
+      <c r="C968" t="s">
+        <v>25</v>
+      </c>
+      <c r="F968" t="s">
+        <v>696</v>
+      </c>
+      <c r="H968" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="969" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A969" t="s">
+        <v>17</v>
+      </c>
+      <c r="B969" t="s">
         <v>1759</v>
       </c>
-    </row>
-    <row r="958" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A958" t="s">
-        <v>17</v>
-      </c>
-      <c r="B958" t="s">
+      <c r="C969" t="s">
+        <v>65</v>
+      </c>
+      <c r="F969" t="s">
+        <v>696</v>
+      </c>
+      <c r="H969" t="s">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="970" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A970" t="s">
+        <v>17</v>
+      </c>
+      <c r="B970" t="s">
+        <v>2057</v>
+      </c>
+      <c r="F970" t="s">
+        <v>696</v>
+      </c>
+      <c r="H970" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="971" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A971" t="s">
+        <v>17</v>
+      </c>
+      <c r="B971" t="s">
         <v>1760</v>
       </c>
-    </row>
-    <row r="959" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A959" t="s">
-        <v>17</v>
-      </c>
-      <c r="B959" t="s">
+      <c r="F971" t="s">
+        <v>696</v>
+      </c>
+      <c r="H971" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="972" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A972" t="s">
+        <v>0</v>
+      </c>
+      <c r="B972" t="s">
         <v>1761</v>
       </c>
-    </row>
-    <row r="960" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A960" t="s">
-        <v>17</v>
-      </c>
-      <c r="B960" t="s">
+      <c r="C972" t="s">
+        <v>25</v>
+      </c>
+      <c r="F972" t="s">
+        <v>696</v>
+      </c>
+      <c r="H972" t="s">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="973" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A973" t="s">
+        <v>0</v>
+      </c>
+      <c r="B973" t="s">
         <v>1762</v>
       </c>
-    </row>
-    <row r="961" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A961" t="s">
-        <v>17</v>
-      </c>
-      <c r="B961" t="s">
+      <c r="C973" t="s">
+        <v>65</v>
+      </c>
+      <c r="F973" t="s">
+        <v>696</v>
+      </c>
+      <c r="H973" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="974" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A974" t="s">
+        <v>17</v>
+      </c>
+      <c r="B974" t="s">
         <v>1763</v>
       </c>
-      <c r="C961" t="s">
+      <c r="C974" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="962" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A962" t="s">
-        <v>17</v>
-      </c>
-      <c r="B962" t="s">
+      <c r="F974" t="s">
+        <v>696</v>
+      </c>
+      <c r="H974" t="s">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="975" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A975" t="s">
+        <v>17</v>
+      </c>
+      <c r="B975" t="s">
         <v>1764</v>
-      </c>
-      <c r="C962" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="963" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A963" t="s">
-        <v>17</v>
-      </c>
-      <c r="B963" t="s">
-        <v>1765</v>
-      </c>
-    </row>
-    <row r="964" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A964" t="s">
-        <v>17</v>
-      </c>
-      <c r="B964" t="s">
-        <v>1766</v>
-      </c>
-    </row>
-    <row r="965" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A965" t="s">
-        <v>0</v>
-      </c>
-      <c r="B965" t="s">
-        <v>1767</v>
-      </c>
-    </row>
-    <row r="966" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A966" t="s">
-        <v>17</v>
-      </c>
-      <c r="B966" t="s">
-        <v>1768</v>
-      </c>
-      <c r="C966" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="967" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A967" t="s">
-        <v>21</v>
-      </c>
-      <c r="B967" t="s">
-        <v>1769</v>
-      </c>
-      <c r="C967" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="968" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A968" t="s">
-        <v>17</v>
-      </c>
-      <c r="B968" t="s">
-        <v>1770</v>
-      </c>
-    </row>
-    <row r="969" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A969" t="s">
-        <v>0</v>
-      </c>
-      <c r="B969" t="s">
-        <v>1771</v>
-      </c>
-      <c r="C969" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="970" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A970" t="s">
-        <v>17</v>
-      </c>
-      <c r="B970" t="s">
-        <v>1772</v>
-      </c>
-    </row>
-    <row r="971" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A971" t="s">
-        <v>17</v>
-      </c>
-      <c r="B971" t="s">
-        <v>1773</v>
-      </c>
-    </row>
-    <row r="972" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A972" t="s">
-        <v>17</v>
-      </c>
-      <c r="B972" t="s">
-        <v>1774</v>
-      </c>
-    </row>
-    <row r="973" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A973" t="s">
-        <v>0</v>
-      </c>
-      <c r="B973" t="s">
-        <v>1775</v>
-      </c>
-      <c r="C973" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="974" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A974" t="s">
-        <v>0</v>
-      </c>
-      <c r="B974" t="s">
-        <v>1776</v>
-      </c>
-    </row>
-    <row r="975" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A975" t="s">
-        <v>17</v>
-      </c>
-      <c r="B975" t="s">
-        <v>1777</v>
       </c>
       <c r="C975" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="976" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A976" t="s">
-        <v>17</v>
-      </c>
+      <c r="F975" t="s">
+        <v>696</v>
+      </c>
+      <c r="H975" t="s">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="976" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B976" t="s">
-        <v>1778</v>
-      </c>
-      <c r="C976" t="s">
+        <v>1765</v>
+      </c>
+      <c r="F976" t="s">
+        <v>695</v>
+      </c>
+      <c r="H976" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="977" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A977" t="s">
+        <v>17</v>
+      </c>
+      <c r="B977" t="s">
+        <v>1767</v>
+      </c>
+      <c r="C977" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="977" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B977" t="s">
-        <v>1779</v>
-      </c>
-      <c r="E977" t="s">
-        <v>1781</v>
-      </c>
-      <c r="G977" t="s">
-        <v>1780</v>
-      </c>
-    </row>
-    <row r="978" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F977" t="s">
+        <v>696</v>
+      </c>
+      <c r="H977" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="978" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A978" t="s">
+        <v>17</v>
+      </c>
       <c r="B978" t="s">
-        <v>1782</v>
-      </c>
-    </row>
-    <row r="979" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1768</v>
+      </c>
+      <c r="C978" t="s">
+        <v>1769</v>
+      </c>
+      <c r="F978" t="s">
+        <v>696</v>
+      </c>
+      <c r="H978" t="s">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="979" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A979" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B979" t="s">
-        <v>1783</v>
+        <v>1770</v>
       </c>
       <c r="C979" t="s">
-        <v>1784</v>
-      </c>
-    </row>
-    <row r="980" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="F979" t="s">
+        <v>696</v>
+      </c>
+      <c r="H979" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="980" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A980" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B980" t="s">
-        <v>1785</v>
+        <v>1771</v>
       </c>
       <c r="C980" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="981" spans="1:7" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="F980" t="s">
+        <v>696</v>
+      </c>
+      <c r="H980" t="s">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="981" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A981" t="s">
         <v>0</v>
       </c>
       <c r="B981" t="s">
-        <v>1786</v>
+        <v>1772</v>
       </c>
       <c r="C981" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="982" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F981" t="s">
+        <v>696</v>
+      </c>
+      <c r="H981" t="s">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="982" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A982" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B982" t="s">
-        <v>1787</v>
+        <v>1773</v>
       </c>
       <c r="C982" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="983" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F982" t="s">
+        <v>696</v>
+      </c>
+      <c r="H982" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="983" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A983" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B983" t="s">
-        <v>1788</v>
+        <v>1774</v>
       </c>
       <c r="C983" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="984" spans="1:7" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="F983" t="s">
+        <v>696</v>
+      </c>
+      <c r="H983" t="s">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="984" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A984" t="s">
         <v>21</v>
       </c>
       <c r="B984" t="s">
-        <v>1789</v>
+        <v>1775</v>
       </c>
       <c r="C984" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="985" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A985" t="s">
+        <v>19</v>
+      </c>
+      <c r="F984" t="s">
+        <v>696</v>
+      </c>
+      <c r="H984" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="985" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B985" t="s">
+        <v>1776</v>
+      </c>
+      <c r="F985" t="s">
+        <v>695</v>
+      </c>
+      <c r="H985" t="s">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="986" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A986" t="s">
         <v>21</v>
       </c>
-      <c r="B985" t="s">
-        <v>1790</v>
-      </c>
-      <c r="C985" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="986" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A986" t="s">
-        <v>17</v>
-      </c>
       <c r="B986" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
       <c r="C986" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="987" spans="1:7" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="F986" t="s">
+        <v>696</v>
+      </c>
+      <c r="H986" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="987" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A987" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B987" t="s">
-        <v>1792</v>
+        <v>1778</v>
       </c>
       <c r="C987" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="988" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F987" t="s">
+        <v>696</v>
+      </c>
+      <c r="H987" t="s">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="988" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A988" t="s">
+        <v>0</v>
+      </c>
       <c r="B988" t="s">
-        <v>1793</v>
-      </c>
-    </row>
-    <row r="989" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A989" t="s">
+        <v>1779</v>
+      </c>
+      <c r="C988" t="s">
+        <v>25</v>
+      </c>
+      <c r="F988" t="s">
+        <v>696</v>
+      </c>
+      <c r="H988" t="s">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="989" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B989" t="s">
+        <v>1780</v>
+      </c>
+      <c r="F989" t="s">
+        <v>692</v>
+      </c>
+      <c r="H989" t="s">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="990" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B990" t="s">
+        <v>1781</v>
+      </c>
+      <c r="F990" t="s">
+        <v>692</v>
+      </c>
+      <c r="H990" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="991" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A991" t="s">
+        <v>0</v>
+      </c>
+      <c r="B991" t="s">
+        <v>1782</v>
+      </c>
+      <c r="C991" t="s">
+        <v>25</v>
+      </c>
+      <c r="F991" t="s">
+        <v>696</v>
+      </c>
+      <c r="H991" t="s">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="992" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A992" t="s">
+        <v>0</v>
+      </c>
+      <c r="B992" t="s">
+        <v>1783</v>
+      </c>
+      <c r="C992" t="s">
+        <v>25</v>
+      </c>
+      <c r="F992" t="s">
+        <v>696</v>
+      </c>
+      <c r="H992" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="993" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A993" t="s">
+        <v>0</v>
+      </c>
+      <c r="B993" t="s">
+        <v>1784</v>
+      </c>
+      <c r="C993" t="s">
+        <v>25</v>
+      </c>
+      <c r="F993" t="s">
+        <v>696</v>
+      </c>
+      <c r="H993" t="s">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="994" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A994" t="s">
+        <v>0</v>
+      </c>
+      <c r="B994" t="s">
+        <v>2079</v>
+      </c>
+      <c r="F994" t="s">
+        <v>696</v>
+      </c>
+      <c r="H994" t="s">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="995" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A995" t="s">
+        <v>17</v>
+      </c>
+      <c r="B995" t="s">
+        <v>1785</v>
+      </c>
+      <c r="F995" t="s">
+        <v>696</v>
+      </c>
+      <c r="H995" t="s">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="996" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A996" t="s">
         <v>21</v>
       </c>
-      <c r="B989" t="s">
-        <v>1794</v>
-      </c>
-      <c r="C989" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="990" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A990" t="s">
-        <v>21</v>
-      </c>
-      <c r="B990" t="s">
-        <v>1795</v>
-      </c>
-    </row>
-    <row r="991" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A991" t="s">
-        <v>0</v>
-      </c>
-      <c r="B991" t="s">
-        <v>1796</v>
-      </c>
-    </row>
-    <row r="992" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B992" t="s">
-        <v>1797</v>
-      </c>
-    </row>
-    <row r="993" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B993" t="s">
-        <v>1798</v>
-      </c>
-    </row>
-    <row r="994" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A994" t="s">
-        <v>0</v>
-      </c>
-      <c r="B994" t="s">
-        <v>1799</v>
-      </c>
-      <c r="C994" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="995" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A995" t="s">
-        <v>0</v>
-      </c>
-      <c r="B995" t="s">
-        <v>1800</v>
-      </c>
-      <c r="C995" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="996" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A996" t="s">
-        <v>0</v>
-      </c>
       <c r="B996" t="s">
-        <v>1801</v>
+        <v>1786</v>
       </c>
       <c r="C996" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="997" spans="1:3" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="F996" t="s">
+        <v>696</v>
+      </c>
+      <c r="H996" t="s">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="997" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A997" t="s">
         <v>0</v>
       </c>
       <c r="B997" t="s">
-        <v>1802</v>
+        <v>1787</v>
       </c>
       <c r="C997" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="998" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F997" t="s">
+        <v>696</v>
+      </c>
+      <c r="H997" t="s">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="998" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A998" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B998" t="s">
-        <v>1803</v>
-      </c>
-    </row>
-    <row r="999" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1788</v>
+      </c>
+      <c r="F998" t="s">
+        <v>696</v>
+      </c>
+      <c r="H998" t="s">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="999" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A999" t="s">
+        <v>0</v>
+      </c>
+      <c r="B999" t="s">
+        <v>1789</v>
+      </c>
+      <c r="C999" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1000" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1000" t="s">
+        <v>1790</v>
+      </c>
+      <c r="C1000" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1001" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1001" t="s">
+        <v>1791</v>
+      </c>
+      <c r="C1001" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1002" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1003" t="s">
         <v>21</v>
       </c>
-      <c r="B999" t="s">
-        <v>1804</v>
-      </c>
-      <c r="C999" t="s">
+      <c r="B1003" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1004" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1004" t="s">
+        <v>1794</v>
+      </c>
+      <c r="C1004" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="1000" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1000" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1000" t="s">
-        <v>1805</v>
-      </c>
-      <c r="C1000" t="s">
+    <row r="1005" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1005" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1005" t="s">
+        <v>1795</v>
+      </c>
+      <c r="C1005" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1006" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1006" t="s">
+        <v>1796</v>
+      </c>
+      <c r="C1006" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="1001" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1001" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1001" t="s">
-        <v>1806</v>
-      </c>
-    </row>
-    <row r="1002" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1002" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1002" t="s">
-        <v>1807</v>
-      </c>
-      <c r="C1002" t="s">
+    <row r="1007" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1007" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1007" t="s">
+        <v>1797</v>
+      </c>
+      <c r="C1007" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1008" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1008" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C1008" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="1003" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1003" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1003" t="s">
-        <v>1808</v>
-      </c>
-      <c r="C1003" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="1004" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1004" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1004" t="s">
-        <v>1809</v>
-      </c>
-      <c r="C1004" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="1005" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B1005" t="s">
-        <v>1810</v>
-      </c>
-    </row>
-    <row r="1006" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1006" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1006" t="s">
-        <v>1811</v>
-      </c>
-    </row>
-    <row r="1007" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1007" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1007" t="s">
-        <v>1812</v>
-      </c>
-      <c r="C1007" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="1008" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1008" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1008" t="s">
-        <v>1813</v>
-      </c>
-      <c r="C1008" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="1009" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1009" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B1009" t="s">
-        <v>1814</v>
+        <v>1799</v>
       </c>
       <c r="C1009" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1010" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1010" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B1010" t="s">
-        <v>1815</v>
+        <v>1800</v>
       </c>
       <c r="C1010" t="s">
-        <v>19</v>
+        <v>25</v>
+      </c>
+      <c r="G1010" t="s">
+        <v>1801</v>
       </c>
     </row>
     <row r="1011" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1011" t="s">
-        <v>0</v>
-      </c>
       <c r="B1011" t="s">
-        <v>1816</v>
-      </c>
-      <c r="C1011" t="s">
-        <v>25</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="1012" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1012" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B1012" t="s">
-        <v>1817</v>
+        <v>1803</v>
       </c>
       <c r="C1012" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1013" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1013" t="s">
-        <v>0</v>
-      </c>
       <c r="B1013" t="s">
-        <v>1818</v>
-      </c>
-      <c r="C1013" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1013" t="s">
-        <v>1819</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="1014" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1014" t="s">
+        <v>17</v>
+      </c>
       <c r="B1014" t="s">
-        <v>1820</v>
+        <v>1805</v>
+      </c>
+      <c r="C1014" t="s">
+        <v>1806</v>
       </c>
     </row>
     <row r="1015" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1015" t="s">
-        <v>0</v>
-      </c>
       <c r="B1015" t="s">
-        <v>1821</v>
-      </c>
-      <c r="C1015" t="s">
-        <v>25</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="1016" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1016" t="s">
-        <v>1822</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="1017" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1017" t="s">
-        <v>17</v>
-      </c>
       <c r="B1017" t="s">
-        <v>1823</v>
-      </c>
-      <c r="C1017" t="s">
-        <v>1824</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="1018" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1018" t="s">
-        <v>1825</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="1019" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1019" t="s">
-        <v>1826</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="1020" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1020" t="s">
-        <v>1827</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="1021" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1021" t="s">
-        <v>1828</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="1022" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1022" t="s">
-        <v>1829</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="1023" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1023" t="s">
-        <v>1830</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="1024" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1024" t="s">
-        <v>1831</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="1025" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1025" t="s">
-        <v>1832</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="1026" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1026" t="s">
-        <v>1833</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="1027" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1027" t="s">
-        <v>1834</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="1028" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1028" t="s">
-        <v>1835</v>
+        <v>411</v>
       </c>
     </row>
     <row r="1029" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1029" t="s">
-        <v>1836</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="1030" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1030" t="s">
-        <v>1837</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="1031" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1031" t="s">
+        <v>21</v>
+      </c>
       <c r="B1031" t="s">
-        <v>411</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="1032" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1032" t="s">
-        <v>1838</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="1033" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1033" t="s">
+        <v>21</v>
+      </c>
       <c r="B1033" t="s">
-        <v>1839</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="1034" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1034" t="s">
-        <v>21</v>
-      </c>
       <c r="B1034" t="s">
-        <v>1840</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="1035" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1035" t="s">
-        <v>1841</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="1036" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1036" t="s">
-        <v>21</v>
-      </c>
       <c r="B1036" t="s">
-        <v>1842</v>
+        <v>219</v>
       </c>
     </row>
     <row r="1037" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1037" t="s">
-        <v>1843</v>
-      </c>
-    </row>
-    <row r="1038" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1038" t="s">
-        <v>1844</v>
-      </c>
-    </row>
-    <row r="1039" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1039" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="1040" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1040" t="s">
-        <v>1845</v>
+        <v>1827</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:N336 B338 F337:F356 H337:H371 B340:B694 F417:F694 F696:F723 B802:B1040 B696:B800 F725:F754">
-    <cfRule type="expression" dxfId="19" priority="5">
+  <conditionalFormatting sqref="A1:N336 B338 F337:F356 H337:H371 B340:B694 F417:F694 F696:F723 B696:B799 B801:B1037 F725:F998">
+    <cfRule type="expression" dxfId="10" priority="5">
       <formula>"F=nomen"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="expression" dxfId="18" priority="4">
+    <cfRule type="expression" dxfId="9" priority="4">
       <formula>$F$1 = verben</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F357:F373 F376:F415">
-    <cfRule type="expression" dxfId="17" priority="3">
+    <cfRule type="expression" dxfId="8" priority="3">
       <formula>"F=nomen"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C513">
-    <cfRule type="expression" dxfId="16" priority="2">
+    <cfRule type="expression" dxfId="7" priority="2">
       <formula>"F=nomen"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F695 B695">
-    <cfRule type="expression" dxfId="15" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>"F=nomen"</formula>
     </cfRule>
   </conditionalFormatting>
